--- a/example/colalab_plot_examples/example.xlsx
+++ b/example/colalab_plot_examples/example.xlsx
@@ -67,49 +67,49 @@
     <t>Trial-2</t>
   </si>
   <si>
-    <t>[1.96, -0.21, 1.83, 0.32, 0.26, 1.89, -0.06, 1.95, 1.3, -0.49]</t>
-  </si>
-  <si>
-    <t>[1.91, 0.23, 2.35, 0.23, -0.04, 2.01, -0.82, 2.13, 1.29, -0.43]</t>
-  </si>
-  <si>
-    <t>[1.62, -0.23, 2.6, 0.08, 0.55, 1.29, -0.57, 2.26, 2.01, -0.71]</t>
-  </si>
-  <si>
-    <t>[3.52, 2.34, 2.86, 2.84, 2.96, 0.86, 0.06, 1.52, 1.34, 3.17]</t>
-  </si>
-  <si>
-    <t>[3.7, 2.52, 2.75, 3.3, 2.88, 0.22, 0.44, 1.26, 0.67, 2.98]</t>
-  </si>
-  <si>
-    <t>[3.17, 2.54, 3.09, 3.72, 2.45, 0.33, 0.54, 1.35, 0.53, 2.44]</t>
-  </si>
-  <si>
-    <t>[4.28, 4.3, 3.51, 1.86, 1.38, 1.57, 3.27, 1.65, 1.53, 1.71]</t>
-  </si>
-  <si>
-    <t>[4.22, 4.21, 3.45, 2.33, 1.98, 1.85, 4.01, 1.76, 1.39, 1.93]</t>
-  </si>
-  <si>
-    <t>[3.61, 4.24, 3.4, 2.4, 1.82, 1.46, 3.63, 1.7, 1.5, 2.19]</t>
-  </si>
-  <si>
-    <t>[3.1, 5.04, 4.1, 5.15, 4.91, 5.08, 2.74, 3.01, 4.74, 4.77]</t>
-  </si>
-  <si>
-    <t>[3.0, 4.94, 4.59, 5.29, 4.96, 4.87, 2.84, 2.84, 4.67, 5.09]</t>
-  </si>
-  <si>
-    <t>[2.97, 4.59, 4.8, 5.3, 4.5, 4.6, 2.96, 3.15, 5.14, 5.0]</t>
-  </si>
-  <si>
-    <t>[5.43, 3.85, 3.3, 3.81, 4.33, 4.33, 5.97, 6.0, 4.02, 5.7]</t>
-  </si>
-  <si>
-    <t>[5.85, 4.22, 3.34, 4.06, 4.26, 4.08, 6.67, 5.99, 4.12, 5.11]</t>
-  </si>
-  <si>
-    <t>[5.4, 4.09, 3.62, 3.22, 4.12, 4.06, 6.42, 6.25, 4.91, 5.93]</t>
+    <t>[-0.06, 2.29, 0.83, 2.48, 0.09, 0.29, -0.76, -0.61, 1.63, 0.63]</t>
+  </si>
+  <si>
+    <t>[-0.04, 1.83, 0.09, 2.57, 0.14, 0.39, -0.03, 0.16, 1.49, 0.25]</t>
+  </si>
+  <si>
+    <t>[0.1, 2.33, 0.22, 2.85, 0.08, 0.04, -0.38, -0.26, 1.52, -0.01]</t>
+  </si>
+  <si>
+    <t>[2.74, 2.69, 0.8, 0.7, 2.77, 1.04, 1.46, 3.15, 2.97, 1.63]</t>
+  </si>
+  <si>
+    <t>[2.98, 3.19, 1.22, 0.81, 2.97, 0.7, 1.34, 3.0, 2.74, 1.66]</t>
+  </si>
+  <si>
+    <t>[3.28, 2.52, 1.14, 0.87, 3.31, 1.12, 1.22, 2.61, 2.89, 1.67]</t>
+  </si>
+  <si>
+    <t>[1.55, 2.22, 2.13, 1.49, 3.69, 3.9, 3.3, 3.49, 4.35, 2.61]</t>
+  </si>
+  <si>
+    <t>[1.42, 2.17, 2.11, 1.61, 3.81, 3.66, 3.5, 3.88, 3.96, 2.62]</t>
+  </si>
+  <si>
+    <t>[1.22, 2.03, 1.93, 1.72, 3.94, 3.39, 3.78, 3.35, 3.69, 2.07]</t>
+  </si>
+  <si>
+    <t>[4.92, 5.46, 2.89, 2.91, 2.61, 2.22, 3.31, 5.19, 2.49, 3.25]</t>
+  </si>
+  <si>
+    <t>[4.79, 5.84, 2.25, 2.8, 3.24, 3.05, 3.6, 4.39, 2.53, 2.52]</t>
+  </si>
+  <si>
+    <t>[5.38, 5.68, 2.84, 2.99, 3.37, 2.45, 3.42, 4.67, 2.48, 2.67]</t>
+  </si>
+  <si>
+    <t>[3.87, 3.84, 5.47, 5.09, 6.49, 5.7, 5.66, 6.71, 3.97, 6.05]</t>
+  </si>
+  <si>
+    <t>[4.03, 4.01, 6.05, 5.28, 6.46, 5.99, 6.42, 6.62, 4.36, 6.67]</t>
+  </si>
+  <si>
+    <t>[3.51, 3.98, 6.11, 5.89, 6.27, 5.61, 5.97, 6.87, 4.46, 6.52]</t>
   </si>
 </sst>
 </file>
@@ -516,22 +516,22 @@
         <v>17</v>
       </c>
       <c r="E2">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.86</v>
+        <v>1.27</v>
       </c>
       <c r="G2">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="H2">
-        <v>1.98</v>
+        <v>2.13</v>
       </c>
       <c r="I2">
-        <v>-0.8100000000000001</v>
+        <v>-0.82</v>
       </c>
       <c r="J2">
-        <v>2.87</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -548,22 +548,22 @@
         <v>18</v>
       </c>
       <c r="E3">
-        <v>0.97</v>
+        <v>1.04</v>
       </c>
       <c r="F3">
-        <v>0.73</v>
+        <v>1.22</v>
       </c>
       <c r="G3">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="H3">
-        <v>1.99</v>
+        <v>2.07</v>
       </c>
       <c r="I3">
-        <v>-0.99</v>
+        <v>-0.66</v>
       </c>
       <c r="J3">
-        <v>2.54</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -580,19 +580,19 @@
         <v>19</v>
       </c>
       <c r="E4">
-        <v>0.96</v>
+        <v>1.02</v>
       </c>
       <c r="F4">
-        <v>0.8</v>
+        <v>1.38</v>
       </c>
       <c r="G4">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="H4">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="I4">
-        <v>-0.72</v>
+        <v>-0.88</v>
       </c>
       <c r="J4">
         <v>2.85</v>
@@ -612,22 +612,22 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1.83</v>
+        <v>2.01</v>
       </c>
       <c r="F5">
-        <v>1.62</v>
+        <v>2.4</v>
       </c>
       <c r="G5">
         <v>1.04</v>
       </c>
       <c r="H5">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="I5">
-        <v>0.06</v>
+        <v>0.25</v>
       </c>
       <c r="J5">
-        <v>3.81</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -644,22 +644,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="F6">
-        <v>1.66</v>
+        <v>2.36</v>
       </c>
       <c r="G6">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="H6">
-        <v>1.98</v>
+        <v>2.14</v>
       </c>
       <c r="I6">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="J6">
-        <v>3.89</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -676,22 +676,22 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1.87</v>
+        <v>2.03</v>
       </c>
       <c r="F7">
-        <v>1.71</v>
+        <v>2.52</v>
       </c>
       <c r="G7">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="H7">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="I7">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="J7">
-        <v>3.81</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -708,22 +708,22 @@
         <v>23</v>
       </c>
       <c r="E8">
-        <v>2.76</v>
+        <v>2.9</v>
       </c>
       <c r="F8">
-        <v>2.38</v>
+        <v>2.64</v>
       </c>
       <c r="G8">
-        <v>1.07</v>
+        <v>0.98</v>
       </c>
       <c r="H8">
-        <v>1.93</v>
+        <v>1.73</v>
       </c>
       <c r="I8">
-        <v>1.12</v>
+        <v>1.29</v>
       </c>
       <c r="J8">
-        <v>4.68</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -740,22 +740,22 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>2.83</v>
+        <v>2.92</v>
       </c>
       <c r="F9">
-        <v>2.41</v>
+        <v>2.74</v>
       </c>
       <c r="G9">
-        <v>0.98</v>
+        <v>1.03</v>
       </c>
       <c r="H9">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="I9">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="J9">
-        <v>4.83</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -772,22 +772,22 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>2.79</v>
+        <v>2.92</v>
       </c>
       <c r="F10">
-        <v>2.41</v>
+        <v>2.69</v>
       </c>
       <c r="G10">
-        <v>1.05</v>
+        <v>0.96</v>
       </c>
       <c r="H10">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="I10">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="J10">
-        <v>4.81</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -804,22 +804,22 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>4.02</v>
+        <v>3.98</v>
       </c>
       <c r="F11">
-        <v>3.9</v>
+        <v>3.64</v>
       </c>
       <c r="G11">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="H11">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="I11">
-        <v>2.06</v>
+        <v>2.17</v>
       </c>
       <c r="J11">
-        <v>5.99</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -836,22 +836,22 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>4.03</v>
+        <v>3.92</v>
       </c>
       <c r="F12">
-        <v>4.03</v>
+        <v>3.66</v>
       </c>
       <c r="G12">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="H12">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="I12">
-        <v>2.26</v>
+        <v>2.01</v>
       </c>
       <c r="J12">
-        <v>5.8</v>
+        <v>5.84</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -868,22 +868,22 @@
         <v>28</v>
       </c>
       <c r="E13">
-        <v>4.1</v>
+        <v>3.94</v>
       </c>
       <c r="F13">
-        <v>4.05</v>
+        <v>3.72</v>
       </c>
       <c r="G13">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="H13">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="I13">
-        <v>2.19</v>
+        <v>2.09</v>
       </c>
       <c r="J13">
-        <v>5.72</v>
+        <v>5.69</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -900,22 +900,22 @@
         <v>29</v>
       </c>
       <c r="E14">
-        <v>4.92</v>
+        <v>5.08</v>
       </c>
       <c r="F14">
-        <v>4.54</v>
+        <v>5.43</v>
       </c>
       <c r="G14">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="H14">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="I14">
-        <v>3.14</v>
+        <v>3.28</v>
       </c>
       <c r="J14">
-        <v>6.74</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -932,22 +932,22 @@
         <v>30</v>
       </c>
       <c r="E15">
-        <v>4.84</v>
+        <v>5.13</v>
       </c>
       <c r="F15">
-        <v>4.46</v>
+        <v>5.45</v>
       </c>
       <c r="G15">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="H15">
-        <v>2.03</v>
+        <v>2.15</v>
       </c>
       <c r="I15">
-        <v>3.18</v>
+        <v>3.31</v>
       </c>
       <c r="J15">
-        <v>6.86</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -964,22 +964,22 @@
         <v>31</v>
       </c>
       <c r="E16">
-        <v>4.92</v>
+        <v>5.13</v>
       </c>
       <c r="F16">
-        <v>4.62</v>
+        <v>5.41</v>
       </c>
       <c r="G16">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="H16">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="I16">
-        <v>3.18</v>
+        <v>3.39</v>
       </c>
       <c r="J16">
-        <v>6.76</v>
+        <v>6.87</v>
       </c>
     </row>
   </sheetData>

--- a/example/colalab_plot_examples/example.xlsx
+++ b/example/colalab_plot_examples/example.xlsx
@@ -43,73 +43,73 @@
     <t>Max</t>
   </si>
   <si>
-    <t>metric1</t>
-  </si>
-  <si>
-    <t>metric2</t>
-  </si>
-  <si>
-    <t>metric3</t>
-  </si>
-  <si>
-    <t>metric4</t>
-  </si>
-  <si>
-    <t>metric5</t>
-  </si>
-  <si>
-    <t>Trial-0</t>
-  </si>
-  <si>
-    <t>Trial-1</t>
-  </si>
-  <si>
-    <t>Trial-2</t>
-  </si>
-  <si>
-    <t>[-0.06, 2.29, 0.83, 2.48, 0.09, 0.29, -0.76, -0.61, 1.63, 0.63]</t>
-  </si>
-  <si>
-    <t>[-0.04, 1.83, 0.09, 2.57, 0.14, 0.39, -0.03, 0.16, 1.49, 0.25]</t>
-  </si>
-  <si>
-    <t>[0.1, 2.33, 0.22, 2.85, 0.08, 0.04, -0.38, -0.26, 1.52, -0.01]</t>
-  </si>
-  <si>
-    <t>[2.74, 2.69, 0.8, 0.7, 2.77, 1.04, 1.46, 3.15, 2.97, 1.63]</t>
-  </si>
-  <si>
-    <t>[2.98, 3.19, 1.22, 0.81, 2.97, 0.7, 1.34, 3.0, 2.74, 1.66]</t>
-  </si>
-  <si>
-    <t>[3.28, 2.52, 1.14, 0.87, 3.31, 1.12, 1.22, 2.61, 2.89, 1.67]</t>
-  </si>
-  <si>
-    <t>[1.55, 2.22, 2.13, 1.49, 3.69, 3.9, 3.3, 3.49, 4.35, 2.61]</t>
-  </si>
-  <si>
-    <t>[1.42, 2.17, 2.11, 1.61, 3.81, 3.66, 3.5, 3.88, 3.96, 2.62]</t>
-  </si>
-  <si>
-    <t>[1.22, 2.03, 1.93, 1.72, 3.94, 3.39, 3.78, 3.35, 3.69, 2.07]</t>
-  </si>
-  <si>
-    <t>[4.92, 5.46, 2.89, 2.91, 2.61, 2.22, 3.31, 5.19, 2.49, 3.25]</t>
-  </si>
-  <si>
-    <t>[4.79, 5.84, 2.25, 2.8, 3.24, 3.05, 3.6, 4.39, 2.53, 2.52]</t>
-  </si>
-  <si>
-    <t>[5.38, 5.68, 2.84, 2.99, 3.37, 2.45, 3.42, 4.67, 2.48, 2.67]</t>
-  </si>
-  <si>
-    <t>[3.87, 3.84, 5.47, 5.09, 6.49, 5.7, 5.66, 6.71, 3.97, 6.05]</t>
-  </si>
-  <si>
-    <t>[4.03, 4.01, 6.05, 5.28, 6.46, 5.99, 6.42, 6.62, 4.36, 6.67]</t>
-  </si>
-  <si>
-    <t>[3.51, 3.98, 6.11, 5.89, 6.27, 5.61, 5.97, 6.87, 4.46, 6.52]</t>
+    <t>HV</t>
+  </si>
+  <si>
+    <t>IGD</t>
+  </si>
+  <si>
+    <t>Epsilon</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>Spread</t>
+  </si>
+  <si>
+    <t>NSGA-II</t>
+  </si>
+  <si>
+    <t>NSGA-III</t>
+  </si>
+  <si>
+    <t>MOEA/D</t>
+  </si>
+  <si>
+    <t>[2.6, 0.08, -0.35, 1.78, 1.48, -0.56, 2.31, 1.44, 1.61, -0.31]</t>
+  </si>
+  <si>
+    <t>[2.16, -0.65, 0.15, 2.15, 2.21, -0.85, 2.47, 2.0, 2.1, -0.87]</t>
+  </si>
+  <si>
+    <t>[2.27, -0.1, -0.41, 2.61, 1.67, -0.34, 2.46, 1.74, 1.44, 0.07]</t>
+  </si>
+  <si>
+    <t>[3.43, 2.48, 1.13, 3.69, 3.48, 2.48, 0.71, 2.83, 0.1, 0.66]</t>
+  </si>
+  <si>
+    <t>[2.75, 2.64, 1.11, 3.21, 3.58, 2.72, 0.76, 3.1, 0.73, 0.67]</t>
+  </si>
+  <si>
+    <t>[3.35, 3.15, 1.31, 3.68, 3.46, 3.19, 0.5, 2.58, 0.41, 0.91]</t>
+  </si>
+  <si>
+    <t>[4.21, 3.63, 2.47, 3.89, 2.11, 2.18, 4.69, 3.33, 3.98, 1.25]</t>
+  </si>
+  <si>
+    <t>[4.0, 3.47, 2.46, 3.26, 2.5, 1.33, 4.51, 3.89, 4.2, 1.98]</t>
+  </si>
+  <si>
+    <t>[4.61, 3.22, 2.45, 3.35, 2.22, 1.59, 4.59, 3.81, 4.51, 1.18]</t>
+  </si>
+  <si>
+    <t>[4.87, 3.11, 3.28, 4.61, 5.86, 3.29, 3.47, 2.8, 5.35, 2.83]</t>
+  </si>
+  <si>
+    <t>[4.43, 2.54, 2.85, 5.04, 5.1, 3.02, 3.53, 2.78, 4.95, 3.13]</t>
+  </si>
+  <si>
+    <t>[4.49, 3.12, 3.31, 5.4, 5.12, 3.37, 3.79, 2.96, 5.32, 2.94]</t>
+  </si>
+  <si>
+    <t>[6.25, 3.58, 5.69, 3.69, 6.28, 3.77, 3.77, 4.22, 4.17, 5.63]</t>
+  </si>
+  <si>
+    <t>[6.11, 4.06, 6.2, 3.67, 6.29, 4.3, 4.38, 4.02, 3.9, 5.58]</t>
+  </si>
+  <si>
+    <t>[5.97, 3.96, 6.04, 3.74, 5.78, 3.44, 4.09, 3.87, 4.45, 5.6]</t>
   </si>
 </sst>
 </file>
@@ -516,22 +516,22 @@
         <v>17</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="F2">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="G2">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="H2">
-        <v>2.13</v>
+        <v>2.01</v>
       </c>
       <c r="I2">
-        <v>-0.82</v>
+        <v>-0.65</v>
       </c>
       <c r="J2">
-        <v>2.97</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -548,22 +548,22 @@
         <v>18</v>
       </c>
       <c r="E3">
-        <v>1.04</v>
+        <v>0.98</v>
       </c>
       <c r="F3">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="G3">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="H3">
-        <v>2.07</v>
+        <v>2.18</v>
       </c>
       <c r="I3">
-        <v>-0.66</v>
+        <v>-0.87</v>
       </c>
       <c r="J3">
-        <v>2.87</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -583,19 +583,19 @@
         <v>1.02</v>
       </c>
       <c r="F4">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="G4">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="H4">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="I4">
-        <v>-0.88</v>
+        <v>-0.68</v>
       </c>
       <c r="J4">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -612,22 +612,22 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>2.01</v>
+        <v>1.88</v>
       </c>
       <c r="F5">
-        <v>2.4</v>
+        <v>1.39</v>
       </c>
       <c r="G5">
-        <v>1.04</v>
+        <v>1.19</v>
       </c>
       <c r="H5">
-        <v>1.95</v>
+        <v>2.24</v>
       </c>
       <c r="I5">
-        <v>0.25</v>
+        <v>0.04</v>
       </c>
       <c r="J5">
-        <v>3.93</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -647,19 +647,19 @@
         <v>1.92</v>
       </c>
       <c r="F6">
-        <v>2.36</v>
+        <v>1.43</v>
       </c>
       <c r="G6">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="H6">
-        <v>2.14</v>
+        <v>2.21</v>
       </c>
       <c r="I6">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="J6">
-        <v>3.67</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -676,22 +676,22 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="F7">
-        <v>2.52</v>
+        <v>1.46</v>
       </c>
       <c r="G7">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="H7">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="I7">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="J7">
-        <v>3.87</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -708,22 +708,22 @@
         <v>23</v>
       </c>
       <c r="E8">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="F8">
-        <v>2.64</v>
+        <v>3.05</v>
       </c>
       <c r="G8">
-        <v>0.98</v>
+        <v>1.07</v>
       </c>
       <c r="H8">
-        <v>1.73</v>
+        <v>1.89</v>
       </c>
       <c r="I8">
-        <v>1.29</v>
+        <v>1.12</v>
       </c>
       <c r="J8">
-        <v>4.57</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -740,22 +740,22 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>2.92</v>
+        <v>3.01</v>
       </c>
       <c r="F9">
-        <v>2.74</v>
+        <v>3.34</v>
       </c>
       <c r="G9">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="H9">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="I9">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="J9">
-        <v>4.71</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -772,22 +772,22 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>2.92</v>
+        <v>2.99</v>
       </c>
       <c r="F10">
-        <v>2.69</v>
+        <v>3.16</v>
       </c>
       <c r="G10">
-        <v>0.96</v>
+        <v>1.09</v>
       </c>
       <c r="H10">
-        <v>1.75</v>
+        <v>1.94</v>
       </c>
       <c r="I10">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="J10">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -804,22 +804,22 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>3.98</v>
+        <v>4.07</v>
       </c>
       <c r="F11">
-        <v>3.64</v>
+        <v>4.42</v>
       </c>
       <c r="G11">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="H11">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="I11">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="J11">
-        <v>5.78</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -836,22 +836,22 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>3.92</v>
+        <v>3.98</v>
       </c>
       <c r="F12">
-        <v>3.66</v>
+        <v>4.35</v>
       </c>
       <c r="G12">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="H12">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="I12">
-        <v>2.01</v>
+        <v>2.06</v>
       </c>
       <c r="J12">
-        <v>5.84</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -868,22 +868,22 @@
         <v>28</v>
       </c>
       <c r="E13">
-        <v>3.94</v>
+        <v>4.05</v>
       </c>
       <c r="F13">
-        <v>3.72</v>
+        <v>4.37</v>
       </c>
       <c r="G13">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="H13">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="I13">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="J13">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -900,22 +900,22 @@
         <v>29</v>
       </c>
       <c r="E14">
-        <v>5.08</v>
+        <v>4.98</v>
       </c>
       <c r="F14">
-        <v>5.43</v>
+        <v>5.27</v>
       </c>
       <c r="G14">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="H14">
-        <v>1.97</v>
+        <v>2.01</v>
       </c>
       <c r="I14">
-        <v>3.28</v>
+        <v>3.11</v>
       </c>
       <c r="J14">
-        <v>6.95</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -932,22 +932,22 @@
         <v>30</v>
       </c>
       <c r="E15">
-        <v>5.13</v>
+        <v>5.04</v>
       </c>
       <c r="F15">
-        <v>5.45</v>
+        <v>5.37</v>
       </c>
       <c r="G15">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="H15">
-        <v>2.15</v>
+        <v>1.99</v>
       </c>
       <c r="I15">
-        <v>3.31</v>
+        <v>3.2</v>
       </c>
       <c r="J15">
-        <v>6.94</v>
+        <v>6.78</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -964,22 +964,22 @@
         <v>31</v>
       </c>
       <c r="E16">
-        <v>5.13</v>
+        <v>5</v>
       </c>
       <c r="F16">
-        <v>5.41</v>
+        <v>5.29</v>
       </c>
       <c r="G16">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="H16">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="I16">
-        <v>3.39</v>
+        <v>3.07</v>
       </c>
       <c r="J16">
-        <v>6.87</v>
+        <v>6.75</v>
       </c>
     </row>
   </sheetData>

--- a/example/colalab_plot_examples/example.xlsx
+++ b/example/colalab_plot_examples/example.xlsx
@@ -67,49 +67,49 @@
     <t>MOEA/D</t>
   </si>
   <si>
-    <t>[2.6, 0.08, -0.35, 1.78, 1.48, -0.56, 2.31, 1.44, 1.61, -0.31]</t>
-  </si>
-  <si>
-    <t>[2.16, -0.65, 0.15, 2.15, 2.21, -0.85, 2.47, 2.0, 2.1, -0.87]</t>
-  </si>
-  <si>
-    <t>[2.27, -0.1, -0.41, 2.61, 1.67, -0.34, 2.46, 1.74, 1.44, 0.07]</t>
-  </si>
-  <si>
-    <t>[3.43, 2.48, 1.13, 3.69, 3.48, 2.48, 0.71, 2.83, 0.1, 0.66]</t>
-  </si>
-  <si>
-    <t>[2.75, 2.64, 1.11, 3.21, 3.58, 2.72, 0.76, 3.1, 0.73, 0.67]</t>
-  </si>
-  <si>
-    <t>[3.35, 3.15, 1.31, 3.68, 3.46, 3.19, 0.5, 2.58, 0.41, 0.91]</t>
-  </si>
-  <si>
-    <t>[4.21, 3.63, 2.47, 3.89, 2.11, 2.18, 4.69, 3.33, 3.98, 1.25]</t>
-  </si>
-  <si>
-    <t>[4.0, 3.47, 2.46, 3.26, 2.5, 1.33, 4.51, 3.89, 4.2, 1.98]</t>
-  </si>
-  <si>
-    <t>[4.61, 3.22, 2.45, 3.35, 2.22, 1.59, 4.59, 3.81, 4.51, 1.18]</t>
-  </si>
-  <si>
-    <t>[4.87, 3.11, 3.28, 4.61, 5.86, 3.29, 3.47, 2.8, 5.35, 2.83]</t>
-  </si>
-  <si>
-    <t>[4.43, 2.54, 2.85, 5.04, 5.1, 3.02, 3.53, 2.78, 4.95, 3.13]</t>
-  </si>
-  <si>
-    <t>[4.49, 3.12, 3.31, 5.4, 5.12, 3.37, 3.79, 2.96, 5.32, 2.94]</t>
-  </si>
-  <si>
-    <t>[6.25, 3.58, 5.69, 3.69, 6.28, 3.77, 3.77, 4.22, 4.17, 5.63]</t>
-  </si>
-  <si>
-    <t>[6.11, 4.06, 6.2, 3.67, 6.29, 4.3, 4.38, 4.02, 3.9, 5.58]</t>
-  </si>
-  <si>
-    <t>[5.97, 3.96, 6.04, 3.74, 5.78, 3.44, 4.09, 3.87, 4.45, 5.6]</t>
+    <t>[0.37, -0.33, -0.36, -0.71, -0.28, 2.48, -0.46, 2.49, 1.05, 1.16]</t>
+  </si>
+  <si>
+    <t>[-0.58, -0.34, -0.01, -0.47, -0.38, 1.95, 0.25, 1.92, 1.65, 1.16]</t>
+  </si>
+  <si>
+    <t>[-0.4, -0.84, 0.41, -0.42, -0.69, 2.0, -0.1, 2.44, 1.66, 1.8]</t>
+  </si>
+  <si>
+    <t>[1.09, 0.43, 1.53, 1.02, 1.17, 0.62, 1.61, 1.17, 0.49, 1.76]</t>
+  </si>
+  <si>
+    <t>[1.52, 1.11, 1.6, 0.33, 0.62, 0.69, 1.12, 1.31, 1.27, 1.18]</t>
+  </si>
+  <si>
+    <t>[1.7, 1.1, 1.01, 0.86, 1.22, 1.05, 1.41, 0.98, 1.12, 1.66]</t>
+  </si>
+  <si>
+    <t>[2.33, 3.96, 1.52, 3.93, 1.26, 3.48, 4.85, 4.46, 2.38, 4.05]</t>
+  </si>
+  <si>
+    <t>[1.99, 4.01, 2.03, 4.04, 1.2, 4.14, 4.02, 3.86, 2.21, 3.82]</t>
+  </si>
+  <si>
+    <t>[2.8, 4.03, 1.24, 4.34, 1.32, 4.12, 4.8, 3.85, 1.89, 4.11]</t>
+  </si>
+  <si>
+    <t>[4.95, 4.52, 5.78, 2.83, 4.57, 2.74, 2.42, 3.48, 4.4, 2.81]</t>
+  </si>
+  <si>
+    <t>[5.32, 4.33, 5.65, 3.35, 4.39, 2.64, 2.44, 3.5, 4.46, 3.31]</t>
+  </si>
+  <si>
+    <t>[5.3, 4.59, 4.91, 3.21, 4.2, 3.22, 2.72, 3.13, 4.85, 3.5]</t>
+  </si>
+  <si>
+    <t>[5.32, 6.05, 4.33, 6.03, 6.08, 4.16, 6.43, 5.53, 6.4, 5.5]</t>
+  </si>
+  <si>
+    <t>[5.21, 5.77, 4.57, 5.91, 5.77, 3.86, 6.04, 5.88, 6.53, 6.16]</t>
+  </si>
+  <si>
+    <t>[5.34, 6.1, 4.47, 5.74, 5.59, 3.82, 6.69, 6.36, 6.45, 5.95]</t>
   </si>
 </sst>
 </file>
@@ -516,22 +516,22 @@
         <v>17</v>
       </c>
       <c r="E2">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F2">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="G2">
         <v>1.1</v>
       </c>
       <c r="H2">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="I2">
-        <v>-0.65</v>
+        <v>-0.78</v>
       </c>
       <c r="J2">
-        <v>2.86</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -548,22 +548,22 @@
         <v>18</v>
       </c>
       <c r="E3">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="F3">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="G3">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="H3">
-        <v>2.18</v>
+        <v>1.89</v>
       </c>
       <c r="I3">
-        <v>-0.87</v>
+        <v>-0.75</v>
       </c>
       <c r="J3">
-        <v>2.81</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -580,22 +580,22 @@
         <v>19</v>
       </c>
       <c r="E4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="F4">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="G4">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="H4">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="I4">
-        <v>-0.68</v>
+        <v>-0.84</v>
       </c>
       <c r="J4">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -612,22 +612,22 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="F5">
-        <v>1.39</v>
+        <v>1.69</v>
       </c>
       <c r="G5">
-        <v>1.19</v>
+        <v>1.05</v>
       </c>
       <c r="H5">
-        <v>2.24</v>
+        <v>1.99</v>
       </c>
       <c r="I5">
-        <v>0.04</v>
+        <v>0.31</v>
       </c>
       <c r="J5">
-        <v>3.96</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -644,22 +644,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="F6">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="G6">
         <v>1.13</v>
       </c>
       <c r="H6">
-        <v>2.21</v>
+        <v>2.1</v>
       </c>
       <c r="I6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="J6">
-        <v>3.96</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -676,22 +676,22 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1.88</v>
+        <v>1.97</v>
       </c>
       <c r="F7">
-        <v>1.46</v>
+        <v>1.68</v>
       </c>
       <c r="G7">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="H7">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="I7">
         <v>0.14</v>
       </c>
       <c r="J7">
-        <v>3.78</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -708,22 +708,22 @@
         <v>23</v>
       </c>
       <c r="E8">
-        <v>2.96</v>
+        <v>3.07</v>
       </c>
       <c r="F8">
-        <v>3.05</v>
+        <v>3.37</v>
       </c>
       <c r="G8">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="H8">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="I8">
-        <v>1.12</v>
+        <v>1.25</v>
       </c>
       <c r="J8">
-        <v>4.76</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -740,22 +740,22 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>3.01</v>
+        <v>3.06</v>
       </c>
       <c r="F9">
-        <v>3.34</v>
+        <v>3.59</v>
       </c>
       <c r="G9">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="H9">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="J9">
-        <v>4.82</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -772,22 +772,22 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>2.99</v>
+        <v>3.05</v>
       </c>
       <c r="F10">
-        <v>3.16</v>
+        <v>3.45</v>
       </c>
       <c r="G10">
         <v>1.09</v>
       </c>
       <c r="H10">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="I10">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="J10">
-        <v>4.85</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -804,22 +804,22 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="F11">
-        <v>4.42</v>
+        <v>4.45</v>
       </c>
       <c r="G11">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="H11">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="I11">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="J11">
-        <v>5.92</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -836,22 +836,22 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>3.98</v>
+        <v>4.1</v>
       </c>
       <c r="F12">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="G12">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="H12">
-        <v>1.94</v>
+        <v>2.01</v>
       </c>
       <c r="I12">
-        <v>2.06</v>
+        <v>2.13</v>
       </c>
       <c r="J12">
-        <v>5.58</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -868,22 +868,22 @@
         <v>28</v>
       </c>
       <c r="E13">
-        <v>4.05</v>
+        <v>4.08</v>
       </c>
       <c r="F13">
-        <v>4.37</v>
+        <v>4.49</v>
       </c>
       <c r="G13">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="H13">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="I13">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="J13">
-        <v>5.7</v>
+        <v>5.86</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -900,22 +900,22 @@
         <v>29</v>
       </c>
       <c r="E14">
-        <v>4.98</v>
+        <v>4.93</v>
       </c>
       <c r="F14">
-        <v>5.27</v>
+        <v>4.61</v>
       </c>
       <c r="G14">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="H14">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="I14">
-        <v>3.11</v>
+        <v>3.2</v>
       </c>
       <c r="J14">
-        <v>6.79</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -932,22 +932,22 @@
         <v>30</v>
       </c>
       <c r="E15">
-        <v>5.04</v>
+        <v>4.88</v>
       </c>
       <c r="F15">
-        <v>5.37</v>
+        <v>4.56</v>
       </c>
       <c r="G15">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="H15">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="I15">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
       <c r="J15">
-        <v>6.78</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -964,22 +964,22 @@
         <v>31</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>4.97</v>
       </c>
       <c r="F16">
-        <v>5.29</v>
+        <v>4.67</v>
       </c>
       <c r="G16">
         <v>1.09</v>
       </c>
       <c r="H16">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="I16">
-        <v>3.07</v>
+        <v>3.23</v>
       </c>
       <c r="J16">
-        <v>6.75</v>
+        <v>6.82</v>
       </c>
     </row>
   </sheetData>

--- a/example/colalab_plot_examples/example.xlsx
+++ b/example/colalab_plot_examples/example.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>Metric</t>
   </si>
@@ -58,58 +58,49 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>NSGA-II</t>
-  </si>
-  <si>
-    <t>NSGA-III</t>
-  </si>
-  <si>
-    <t>MOEA/D</t>
-  </si>
-  <si>
-    <t>[0.37, -0.33, -0.36, -0.71, -0.28, 2.48, -0.46, 2.49, 1.05, 1.16]</t>
-  </si>
-  <si>
-    <t>[-0.58, -0.34, -0.01, -0.47, -0.38, 1.95, 0.25, 1.92, 1.65, 1.16]</t>
-  </si>
-  <si>
-    <t>[-0.4, -0.84, 0.41, -0.42, -0.69, 2.0, -0.1, 2.44, 1.66, 1.8]</t>
-  </si>
-  <si>
-    <t>[1.09, 0.43, 1.53, 1.02, 1.17, 0.62, 1.61, 1.17, 0.49, 1.76]</t>
-  </si>
-  <si>
-    <t>[1.52, 1.11, 1.6, 0.33, 0.62, 0.69, 1.12, 1.31, 1.27, 1.18]</t>
-  </si>
-  <si>
-    <t>[1.7, 1.1, 1.01, 0.86, 1.22, 1.05, 1.41, 0.98, 1.12, 1.66]</t>
-  </si>
-  <si>
-    <t>[2.33, 3.96, 1.52, 3.93, 1.26, 3.48, 4.85, 4.46, 2.38, 4.05]</t>
-  </si>
-  <si>
-    <t>[1.99, 4.01, 2.03, 4.04, 1.2, 4.14, 4.02, 3.86, 2.21, 3.82]</t>
-  </si>
-  <si>
-    <t>[2.8, 4.03, 1.24, 4.34, 1.32, 4.12, 4.8, 3.85, 1.89, 4.11]</t>
-  </si>
-  <si>
-    <t>[4.95, 4.52, 5.78, 2.83, 4.57, 2.74, 2.42, 3.48, 4.4, 2.81]</t>
-  </si>
-  <si>
-    <t>[5.32, 4.33, 5.65, 3.35, 4.39, 2.64, 2.44, 3.5, 4.46, 3.31]</t>
-  </si>
-  <si>
-    <t>[5.3, 4.59, 4.91, 3.21, 4.2, 3.22, 2.72, 3.13, 4.85, 3.5]</t>
-  </si>
-  <si>
-    <t>[5.32, 6.05, 4.33, 6.03, 6.08, 4.16, 6.43, 5.53, 6.4, 5.5]</t>
-  </si>
-  <si>
-    <t>[5.21, 5.77, 4.57, 5.91, 5.77, 3.86, 6.04, 5.88, 6.53, 6.16]</t>
-  </si>
-  <si>
-    <t>[5.34, 6.1, 4.47, 5.74, 5.59, 3.82, 6.69, 6.36, 6.45, 5.95]</t>
+    <t>[2.67, 2.42, 1.31, 2.69, 2.1, 0.41, 1.78, 1.55, 1.93, 2.07]</t>
+  </si>
+  <si>
+    <t>[2.6, 2.59, 1.29, 2.51, 2.44, -0.1, 1.1, 2.01, 2.5, 2.03]</t>
+  </si>
+  <si>
+    <t>[2.56, 2.41, 1.26, 2.67, 1.93, 0.03, 1.03, 1.74, 2.67, 1.9]</t>
+  </si>
+  <si>
+    <t>[0.94, 0.95, 1.26, 0.93, 3.19, 2.76, 0.87, 3.58, 2.8, 0.93]</t>
+  </si>
+  <si>
+    <t>[1.1, 0.95, 1.18, 1.21, 2.76, 3.62, 1.1, 3.03, 2.63, 0.99]</t>
+  </si>
+  <si>
+    <t>[1.17, 1.29, 1.84, 1.7, 2.89, 3.44, 1.09, 2.67, 2.4, 1.43]</t>
+  </si>
+  <si>
+    <t>[3.74, 3.8, 2.81, 3.16, 1.97, 2.39, 1.87, 2.14, 3.5, 1.28]</t>
+  </si>
+  <si>
+    <t>[3.7, 3.99, 2.03, 3.17, 2.36, 2.68, 1.72, 1.94, 3.79, 1.78]</t>
+  </si>
+  <si>
+    <t>[3.81, 3.32, 2.06, 3.68, 2.44, 2.24, 1.99, 2.34, 4.07, 1.82]</t>
+  </si>
+  <si>
+    <t>[5.66, 3.06, 2.85, 4.6, 4.73, 3.34, 2.76, 3.59, 3.29, 3.57]</t>
+  </si>
+  <si>
+    <t>[5.46, 3.43, 2.8, 5.08, 5.68, 2.84, 2.39, 3.33, 3.24, 3.1]</t>
+  </si>
+  <si>
+    <t>[5.53, 3.77, 2.33, 4.75, 5.24, 3.37, 2.87, 2.9, 3.07, 3.5]</t>
+  </si>
+  <si>
+    <t>[4.49, 4.5, 5.95, 5.35, 3.35, 4.06, 6.23, 6.22, 6.5, 6.55]</t>
+  </si>
+  <si>
+    <t>[4.05, 4.74, 5.52, 6.07, 4.23, 3.8, 5.61, 5.24, 5.8, 6.91]</t>
+  </si>
+  <si>
+    <t>[3.65, 4.6, 6.28, 5.34, 4.17, 3.68, 5.74, 5.76, 6.4, 6.09]</t>
   </si>
 </sst>
 </file>
@@ -510,28 +501,28 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
       <c r="E2">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="F2">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="G2">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="H2">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="I2">
         <v>-0.78</v>
       </c>
       <c r="J2">
-        <v>2.79</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -542,28 +533,28 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
       <c r="E3">
-        <v>1.02</v>
+        <v>1.12</v>
       </c>
       <c r="F3">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="G3">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="H3">
-        <v>1.89</v>
+        <v>2.06</v>
       </c>
       <c r="I3">
         <v>-0.75</v>
       </c>
       <c r="J3">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -574,28 +565,28 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
       <c r="E4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="F4">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="G4">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="H4">
-        <v>1.96</v>
+        <v>2.05</v>
       </c>
       <c r="I4">
-        <v>-0.84</v>
+        <v>-0.95</v>
       </c>
       <c r="J4">
-        <v>2.92</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -606,28 +597,28 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E5">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="F5">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="G5">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="H5">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="I5">
-        <v>0.31</v>
+        <v>0.24</v>
       </c>
       <c r="J5">
-        <v>3.82</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -638,25 +629,25 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E6">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="F6">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="G6">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="H6">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="I6">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="J6">
         <v>3.84</v>
@@ -670,28 +661,28 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E7">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="G7">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="H7">
-        <v>1.91</v>
+        <v>1.99</v>
       </c>
       <c r="I7">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J7">
-        <v>3.74</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -702,28 +693,28 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3.07</v>
+        <v>2.94</v>
       </c>
       <c r="F8">
-        <v>3.37</v>
+        <v>2.69</v>
       </c>
       <c r="G8">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="H8">
-        <v>1.88</v>
+        <v>1.99</v>
       </c>
       <c r="I8">
-        <v>1.25</v>
+        <v>1.07</v>
       </c>
       <c r="J8">
-        <v>4.85</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -734,28 +725,28 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>3.06</v>
+        <v>3.01</v>
       </c>
       <c r="F9">
-        <v>3.59</v>
+        <v>2.73</v>
       </c>
       <c r="G9">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="I9">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="J9">
-        <v>4.65</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -766,25 +757,25 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>3.45</v>
+        <v>2.68</v>
       </c>
       <c r="G10">
         <v>1.09</v>
       </c>
       <c r="H10">
-        <v>1.97</v>
+        <v>2.05</v>
       </c>
       <c r="I10">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="J10">
         <v>4.82</v>
@@ -798,28 +789,28 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>4.1</v>
+        <v>3.93</v>
       </c>
       <c r="F11">
-        <v>4.45</v>
+        <v>3.61</v>
       </c>
       <c r="G11">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="H11">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="I11">
-        <v>2.2</v>
+        <v>2.29</v>
       </c>
       <c r="J11">
-        <v>5.98</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -830,28 +821,28 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>4.1</v>
+        <v>3.94</v>
       </c>
       <c r="F12">
-        <v>4.45</v>
+        <v>3.55</v>
       </c>
       <c r="G12">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="H12">
-        <v>2.01</v>
+        <v>1.94</v>
       </c>
       <c r="I12">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="J12">
-        <v>5.76</v>
+        <v>5.84</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -862,28 +853,28 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>4.08</v>
+        <v>3.92</v>
       </c>
       <c r="F13">
-        <v>4.49</v>
+        <v>3.58</v>
       </c>
       <c r="G13">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="H13">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="I13">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="J13">
-        <v>5.86</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -894,28 +885,28 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>4.93</v>
+        <v>4.98</v>
       </c>
       <c r="F14">
-        <v>4.61</v>
+        <v>5.26</v>
       </c>
       <c r="G14">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="H14">
-        <v>2.07</v>
+        <v>1.82</v>
       </c>
       <c r="I14">
-        <v>3.2</v>
+        <v>3.01</v>
       </c>
       <c r="J14">
-        <v>6.88</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -926,28 +917,28 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>4.88</v>
+        <v>5.04</v>
       </c>
       <c r="F15">
-        <v>4.56</v>
+        <v>5.26</v>
       </c>
       <c r="G15">
         <v>1.06</v>
       </c>
       <c r="H15">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="I15">
-        <v>3.13</v>
+        <v>3.04</v>
       </c>
       <c r="J15">
-        <v>6.68</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -958,28 +949,28 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E16">
-        <v>4.97</v>
+        <v>5.04</v>
       </c>
       <c r="F16">
-        <v>4.67</v>
+        <v>5.15</v>
       </c>
       <c r="G16">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="H16">
-        <v>1.98</v>
+        <v>2.09</v>
       </c>
       <c r="I16">
-        <v>3.23</v>
+        <v>3.18</v>
       </c>
       <c r="J16">
-        <v>6.82</v>
+        <v>6.86</v>
       </c>
     </row>
   </sheetData>

--- a/example/colalab_plot_examples/example.xlsx
+++ b/example/colalab_plot_examples/example.xlsx
@@ -58,49 +58,49 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>[2.67, 2.42, 1.31, 2.69, 2.1, 0.41, 1.78, 1.55, 1.93, 2.07]</t>
-  </si>
-  <si>
-    <t>[2.6, 2.59, 1.29, 2.51, 2.44, -0.1, 1.1, 2.01, 2.5, 2.03]</t>
-  </si>
-  <si>
-    <t>[2.56, 2.41, 1.26, 2.67, 1.93, 0.03, 1.03, 1.74, 2.67, 1.9]</t>
-  </si>
-  <si>
-    <t>[0.94, 0.95, 1.26, 0.93, 3.19, 2.76, 0.87, 3.58, 2.8, 0.93]</t>
-  </si>
-  <si>
-    <t>[1.1, 0.95, 1.18, 1.21, 2.76, 3.62, 1.1, 3.03, 2.63, 0.99]</t>
-  </si>
-  <si>
-    <t>[1.17, 1.29, 1.84, 1.7, 2.89, 3.44, 1.09, 2.67, 2.4, 1.43]</t>
-  </si>
-  <si>
-    <t>[3.74, 3.8, 2.81, 3.16, 1.97, 2.39, 1.87, 2.14, 3.5, 1.28]</t>
-  </si>
-  <si>
-    <t>[3.7, 3.99, 2.03, 3.17, 2.36, 2.68, 1.72, 1.94, 3.79, 1.78]</t>
-  </si>
-  <si>
-    <t>[3.81, 3.32, 2.06, 3.68, 2.44, 2.24, 1.99, 2.34, 4.07, 1.82]</t>
-  </si>
-  <si>
-    <t>[5.66, 3.06, 2.85, 4.6, 4.73, 3.34, 2.76, 3.59, 3.29, 3.57]</t>
-  </si>
-  <si>
-    <t>[5.46, 3.43, 2.8, 5.08, 5.68, 2.84, 2.39, 3.33, 3.24, 3.1]</t>
-  </si>
-  <si>
-    <t>[5.53, 3.77, 2.33, 4.75, 5.24, 3.37, 2.87, 2.9, 3.07, 3.5]</t>
-  </si>
-  <si>
-    <t>[4.49, 4.5, 5.95, 5.35, 3.35, 4.06, 6.23, 6.22, 6.5, 6.55]</t>
-  </si>
-  <si>
-    <t>[4.05, 4.74, 5.52, 6.07, 4.23, 3.8, 5.61, 5.24, 5.8, 6.91]</t>
-  </si>
-  <si>
-    <t>[3.65, 4.6, 6.28, 5.34, 4.17, 3.68, 5.74, 5.76, 6.4, 6.09]</t>
+    <t>[2.16, 0.34, 2.1, -0.41, 2.27, 2.13, 1.95, 2.35, 1.51, -0.26]</t>
+  </si>
+  <si>
+    <t>[2.41, -0.23, 1.67, -0.61, 2.37, 2.52, 2.1, 1.93, 1.1, -0.66]</t>
+  </si>
+  <si>
+    <t>[2.48, 0.47, 2.34, -0.79, 1.92, 1.81, 1.87, 2.43, 1.36, -0.51]</t>
+  </si>
+  <si>
+    <t>[1.46, 1.8, 1.08, 3.52, 0.19, 0.57, 1.67, 0.17, 0.85, 3.02]</t>
+  </si>
+  <si>
+    <t>[1.52, 1.13, 1.54, 3.73, 0.66, 0.19, 1.34, 0.64, 0.92, 2.8]</t>
+  </si>
+  <si>
+    <t>[1.6, 1.46, 1.26, 3.32, 0.05, 0.79, 1.72, 0.03, 0.61, 2.94]</t>
+  </si>
+  <si>
+    <t>[2.11, 2.23, 2.54, 3.63, 2.69, 4.28, 4.24, 1.81, 3.63, 3.89]</t>
+  </si>
+  <si>
+    <t>[2.08, 1.48, 2.02, 3.17, 1.91, 3.86, 4.37, 1.8, 4.11, 3.12]</t>
+  </si>
+  <si>
+    <t>[2.12, 1.98, 2.37, 3.84, 2.21, 4.49, 4.53, 1.68, 3.83, 3.11]</t>
+  </si>
+  <si>
+    <t>[5.71, 3.17, 5.04, 5.07, 5.15, 3.01, 4.49, 2.99, 4.95, 2.92]</t>
+  </si>
+  <si>
+    <t>[5.71, 3.4, 4.93, 5.35, 5.27, 3.14, 4.42, 2.76, 5.12, 3.2]</t>
+  </si>
+  <si>
+    <t>[5.5, 3.54, 4.44, 5.23, 5.32, 2.83, 4.52, 2.96, 4.46, 2.96]</t>
+  </si>
+  <si>
+    <t>[3.59, 5.92, 6.53, 3.92, 4.3, 6.83, 4.0, 5.61, 3.87, 6.14]</t>
+  </si>
+  <si>
+    <t>[4.48, 6.17, 6.62, 3.83, 3.6, 6.21, 4.19, 5.47, 3.65, 5.49]</t>
+  </si>
+  <si>
+    <t>[4.06, 6.32, 6.19, 4.55, 4.46, 6.65, 4.11, 5.14, 3.62, 5.48]</t>
   </si>
 </sst>
 </file>
@@ -507,22 +507,22 @@
         <v>14</v>
       </c>
       <c r="E2">
+        <v>0.99</v>
+      </c>
+      <c r="F2">
+        <v>1.25</v>
+      </c>
+      <c r="G2">
         <v>1.04</v>
       </c>
-      <c r="F2">
-        <v>1.31</v>
-      </c>
-      <c r="G2">
-        <v>1.08</v>
-      </c>
       <c r="H2">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="I2">
-        <v>-0.78</v>
+        <v>-0.84</v>
       </c>
       <c r="J2">
-        <v>2.69</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -539,22 +539,22 @@
         <v>15</v>
       </c>
       <c r="E3">
-        <v>1.12</v>
+        <v>0.98</v>
       </c>
       <c r="F3">
-        <v>1.24</v>
+        <v>1.07</v>
       </c>
       <c r="G3">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="H3">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="I3">
-        <v>-0.75</v>
+        <v>-0.89</v>
       </c>
       <c r="J3">
-        <v>2.78</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -571,22 +571,22 @@
         <v>16</v>
       </c>
       <c r="E4">
-        <v>1.02</v>
+        <v>0.98</v>
       </c>
       <c r="F4">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="G4">
-        <v>1.12</v>
+        <v>1.03</v>
       </c>
       <c r="H4">
-        <v>2.05</v>
+        <v>1.82</v>
       </c>
       <c r="I4">
-        <v>-0.95</v>
+        <v>-0.9</v>
       </c>
       <c r="J4">
-        <v>2.78</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -603,22 +603,22 @@
         <v>17</v>
       </c>
       <c r="E5">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="F5">
-        <v>1.79</v>
+        <v>1.44</v>
       </c>
       <c r="G5">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="H5">
-        <v>2.06</v>
+        <v>2.01</v>
       </c>
       <c r="I5">
-        <v>0.24</v>
+        <v>0.14</v>
       </c>
       <c r="J5">
-        <v>3.87</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -635,22 +635,22 @@
         <v>18</v>
       </c>
       <c r="E6">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="F6">
-        <v>1.69</v>
+        <v>1.54</v>
       </c>
       <c r="G6">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="H6">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="I6">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="J6">
-        <v>3.84</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -667,22 +667,22 @@
         <v>19</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="F7">
-        <v>1.8</v>
+        <v>1.52</v>
       </c>
       <c r="G7">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="H7">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="I7">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="J7">
-        <v>3.82</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -699,22 +699,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2.94</v>
+        <v>3.01</v>
       </c>
       <c r="F8">
-        <v>2.69</v>
+        <v>2.86</v>
       </c>
       <c r="G8">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="H8">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="I8">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="J8">
-        <v>4.91</v>
+        <v>4.64</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -731,22 +731,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>3.01</v>
+        <v>2.95</v>
       </c>
       <c r="F9">
-        <v>2.73</v>
+        <v>2.64</v>
       </c>
       <c r="G9">
-        <v>1.16</v>
+        <v>1.08</v>
       </c>
       <c r="H9">
-        <v>2.13</v>
+        <v>1.99</v>
       </c>
       <c r="I9">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="J9">
-        <v>4.82</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -763,22 +763,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="F10">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="G10">
         <v>1.09</v>
       </c>
       <c r="H10">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="I10">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="J10">
-        <v>4.82</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -795,22 +795,22 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>3.93</v>
+        <v>3.82</v>
       </c>
       <c r="F11">
-        <v>3.61</v>
+        <v>3.41</v>
       </c>
       <c r="G11">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="H11">
-        <v>2.01</v>
+        <v>1.96</v>
       </c>
       <c r="I11">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="J11">
-        <v>5.85</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -827,22 +827,22 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>3.94</v>
+        <v>3.81</v>
       </c>
       <c r="F12">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="G12">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="H12">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="I12">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="J12">
-        <v>5.84</v>
+        <v>5.77</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -859,22 +859,22 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>3.92</v>
+        <v>3.77</v>
       </c>
       <c r="F13">
-        <v>3.58</v>
+        <v>3.39</v>
       </c>
       <c r="G13">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="H13">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="I13">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="J13">
-        <v>5.7</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -891,22 +891,22 @@
         <v>26</v>
       </c>
       <c r="E14">
-        <v>4.98</v>
+        <v>4.95</v>
       </c>
       <c r="F14">
-        <v>5.26</v>
+        <v>4.55</v>
       </c>
       <c r="G14">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="H14">
-        <v>1.82</v>
+        <v>2.04</v>
       </c>
       <c r="I14">
-        <v>3.01</v>
+        <v>3.2</v>
       </c>
       <c r="J14">
-        <v>6.76</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -923,22 +923,22 @@
         <v>27</v>
       </c>
       <c r="E15">
-        <v>5.04</v>
+        <v>4.85</v>
       </c>
       <c r="F15">
-        <v>5.26</v>
+        <v>4.49</v>
       </c>
       <c r="G15">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="H15">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="I15">
-        <v>3.04</v>
+        <v>3.24</v>
       </c>
       <c r="J15">
-        <v>6.91</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -955,22 +955,22 @@
         <v>28</v>
       </c>
       <c r="E16">
-        <v>5.04</v>
+        <v>4.92</v>
       </c>
       <c r="F16">
-        <v>5.15</v>
+        <v>4.6</v>
       </c>
       <c r="G16">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="H16">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>3.18</v>
+        <v>3.26</v>
       </c>
       <c r="J16">
-        <v>6.86</v>
+        <v>6.8</v>
       </c>
     </row>
   </sheetData>

--- a/example/colalab_plot_examples/example.xlsx
+++ b/example/colalab_plot_examples/example.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>Metric</t>
   </si>
@@ -58,49 +58,58 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>[2.16, 0.34, 2.1, -0.41, 2.27, 2.13, 1.95, 2.35, 1.51, -0.26]</t>
-  </si>
-  <si>
-    <t>[2.41, -0.23, 1.67, -0.61, 2.37, 2.52, 2.1, 1.93, 1.1, -0.66]</t>
-  </si>
-  <si>
-    <t>[2.48, 0.47, 2.34, -0.79, 1.92, 1.81, 1.87, 2.43, 1.36, -0.51]</t>
-  </si>
-  <si>
-    <t>[1.46, 1.8, 1.08, 3.52, 0.19, 0.57, 1.67, 0.17, 0.85, 3.02]</t>
-  </si>
-  <si>
-    <t>[1.52, 1.13, 1.54, 3.73, 0.66, 0.19, 1.34, 0.64, 0.92, 2.8]</t>
-  </si>
-  <si>
-    <t>[1.6, 1.46, 1.26, 3.32, 0.05, 0.79, 1.72, 0.03, 0.61, 2.94]</t>
-  </si>
-  <si>
-    <t>[2.11, 2.23, 2.54, 3.63, 2.69, 4.28, 4.24, 1.81, 3.63, 3.89]</t>
-  </si>
-  <si>
-    <t>[2.08, 1.48, 2.02, 3.17, 1.91, 3.86, 4.37, 1.8, 4.11, 3.12]</t>
-  </si>
-  <si>
-    <t>[2.12, 1.98, 2.37, 3.84, 2.21, 4.49, 4.53, 1.68, 3.83, 3.11]</t>
-  </si>
-  <si>
-    <t>[5.71, 3.17, 5.04, 5.07, 5.15, 3.01, 4.49, 2.99, 4.95, 2.92]</t>
-  </si>
-  <si>
-    <t>[5.71, 3.4, 4.93, 5.35, 5.27, 3.14, 4.42, 2.76, 5.12, 3.2]</t>
-  </si>
-  <si>
-    <t>[5.5, 3.54, 4.44, 5.23, 5.32, 2.83, 4.52, 2.96, 4.46, 2.96]</t>
-  </si>
-  <si>
-    <t>[3.59, 5.92, 6.53, 3.92, 4.3, 6.83, 4.0, 5.61, 3.87, 6.14]</t>
-  </si>
-  <si>
-    <t>[4.48, 6.17, 6.62, 3.83, 3.6, 6.21, 4.19, 5.47, 3.65, 5.49]</t>
-  </si>
-  <si>
-    <t>[4.06, 6.32, 6.19, 4.55, 4.46, 6.65, 4.11, 5.14, 3.62, 5.48]</t>
+    <t>NSGA-II</t>
+  </si>
+  <si>
+    <t>NSGA-III</t>
+  </si>
+  <si>
+    <t>MOEA/D</t>
+  </si>
+  <si>
+    <t>[0.49, 0.01, 1.41, 0.01, 0.1, 2.19, 2.01, 1.91, -0.73, 0.39]</t>
+  </si>
+  <si>
+    <t>[-0.49, 0.36, 1.52, 0.03, 0.07, 1.86, 1.67, 1.56, 0.03, -0.22]</t>
+  </si>
+  <si>
+    <t>[-0.26, 0.07, 2.13, 0.3, -0.52, 2.77, 2.31, 2.0, -0.6, 0.12]</t>
+  </si>
+  <si>
+    <t>[3.49, 0.26, 3.37, 0.95, 2.22, 0.74, 1.6, 1.23, 3.26, 1.49]</t>
+  </si>
+  <si>
+    <t>[2.88, 0.85, 3.05, 0.93, 2.36, 1.45, 1.01, 1.25, 3.28, 1.51]</t>
+  </si>
+  <si>
+    <t>[3.49, 0.37, 3.45, 0.82, 2.99, 0.94, 1.43, 1.36, 2.51, 1.25]</t>
+  </si>
+  <si>
+    <t>[4.3, 4.1, 4.0, 3.75, 2.29, 2.03, 1.82, 3.58, 1.8, 2.31]</t>
+  </si>
+  <si>
+    <t>[3.66, 4.87, 3.69, 3.71, 1.65, 1.9, 1.88, 3.81, 2.38, 2.38]</t>
+  </si>
+  <si>
+    <t>[3.88, 4.0, 4.56, 4.02, 2.3, 2.01, 1.93, 3.37, 1.95, 1.99]</t>
+  </si>
+  <si>
+    <t>[4.68, 5.39, 3.08, 2.94, 3.21, 5.46, 5.25, 2.8, 2.86, 4.95]</t>
+  </si>
+  <si>
+    <t>[4.56, 5.41, 3.76, 3.14, 3.37, 5.26, 5.04, 3.51, 2.43, 5.32]</t>
+  </si>
+  <si>
+    <t>[5.07, 5.21, 3.29, 3.51, 2.82, 5.4, 4.51, 2.97, 2.82, 4.83]</t>
+  </si>
+  <si>
+    <t>[5.55, 5.58, 3.72, 6.36, 3.97, 5.55, 5.22, 4.38, 3.84, 4.53]</t>
+  </si>
+  <si>
+    <t>[5.74, 5.38, 3.7, 6.41, 3.72, 6.06, 5.99, 4.65, 3.79, 4.54]</t>
+  </si>
+  <si>
+    <t>[5.58, 5.17, 3.4, 6.12, 3.58, 5.69, 5.84, 4.16, 3.32, 4.33]</t>
   </si>
 </sst>
 </file>
@@ -501,28 +510,28 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>0.99</v>
+        <v>1.17</v>
       </c>
       <c r="F2">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="G2">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="H2">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="I2">
-        <v>-0.84</v>
+        <v>-0.92</v>
       </c>
       <c r="J2">
-        <v>2.78</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -533,28 +542,28 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>0.98</v>
+        <v>1.11</v>
       </c>
       <c r="F3">
-        <v>1.07</v>
+        <v>1.53</v>
       </c>
       <c r="G3">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="H3">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="I3">
-        <v>-0.89</v>
+        <v>-0.58</v>
       </c>
       <c r="J3">
-        <v>2.55</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -565,28 +574,28 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4">
-        <v>0.98</v>
+        <v>1.14</v>
       </c>
       <c r="F4">
-        <v>1.17</v>
+        <v>1.51</v>
       </c>
       <c r="G4">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="H4">
-        <v>1.82</v>
+        <v>2.02</v>
       </c>
       <c r="I4">
-        <v>-0.9</v>
+        <v>-0.88</v>
       </c>
       <c r="J4">
-        <v>2.64</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -597,28 +606,28 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="F5">
-        <v>1.44</v>
+        <v>1.87</v>
       </c>
       <c r="G5">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="H5">
-        <v>2.01</v>
+        <v>1.87</v>
       </c>
       <c r="I5">
-        <v>0.14</v>
+        <v>0.26</v>
       </c>
       <c r="J5">
-        <v>3.93</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -629,28 +638,28 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1.88</v>
+        <v>1.97</v>
       </c>
       <c r="F6">
-        <v>1.54</v>
+        <v>1.77</v>
       </c>
       <c r="G6">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="H6">
-        <v>2.16</v>
+        <v>2.07</v>
       </c>
       <c r="I6">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="J6">
-        <v>3.91</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -661,28 +670,28 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1.52</v>
+        <v>1.77</v>
       </c>
       <c r="G7">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="H7">
-        <v>2.06</v>
+        <v>2.13</v>
       </c>
       <c r="I7">
-        <v>0.03</v>
+        <v>0.22</v>
       </c>
       <c r="J7">
-        <v>3.84</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -693,28 +702,28 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>3.01</v>
+        <v>2.98</v>
       </c>
       <c r="F8">
-        <v>2.86</v>
+        <v>2.7</v>
       </c>
       <c r="G8">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="H8">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="I8">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="J8">
-        <v>4.64</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -725,28 +734,28 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>2.95</v>
+        <v>2.93</v>
       </c>
       <c r="F9">
-        <v>2.64</v>
+        <v>2.75</v>
       </c>
       <c r="G9">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="H9">
-        <v>1.99</v>
+        <v>1.88</v>
       </c>
       <c r="I9">
-        <v>1.02</v>
+        <v>1.27</v>
       </c>
       <c r="J9">
-        <v>4.85</v>
+        <v>4.87</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -757,28 +766,28 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="F10">
         <v>2.78</v>
       </c>
       <c r="G10">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="H10">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="I10">
-        <v>1.29</v>
+        <v>1.15</v>
       </c>
       <c r="J10">
-        <v>4.84</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -789,28 +798,28 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>3.82</v>
+        <v>4.01</v>
       </c>
       <c r="F11">
-        <v>3.41</v>
+        <v>4.39</v>
       </c>
       <c r="G11">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="H11">
-        <v>1.96</v>
+        <v>2.07</v>
       </c>
       <c r="I11">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="J11">
-        <v>5.95</v>
+        <v>5.72</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -821,28 +830,28 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>3.81</v>
+        <v>4.06</v>
       </c>
       <c r="F12">
-        <v>3.4</v>
+        <v>4.37</v>
       </c>
       <c r="G12">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="H12">
-        <v>1.87</v>
+        <v>2.08</v>
       </c>
       <c r="I12">
-        <v>2.09</v>
+        <v>2.26</v>
       </c>
       <c r="J12">
-        <v>5.77</v>
+        <v>5.79</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -853,28 +862,28 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E13">
-        <v>3.77</v>
+        <v>3.96</v>
       </c>
       <c r="F13">
-        <v>3.39</v>
+        <v>4.28</v>
       </c>
       <c r="G13">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="H13">
-        <v>1.97</v>
+        <v>2.16</v>
       </c>
       <c r="I13">
-        <v>2.22</v>
+        <v>2.21</v>
       </c>
       <c r="J13">
-        <v>5.66</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -885,28 +894,28 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E14">
-        <v>4.95</v>
+        <v>5</v>
       </c>
       <c r="F14">
-        <v>4.55</v>
+        <v>4.94</v>
       </c>
       <c r="G14">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="H14">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="I14">
         <v>3.2</v>
       </c>
       <c r="J14">
-        <v>6.94</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -917,28 +926,28 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E15">
-        <v>4.85</v>
+        <v>5.04</v>
       </c>
       <c r="F15">
-        <v>4.49</v>
+        <v>4.97</v>
       </c>
       <c r="G15">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="H15">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>3.24</v>
+        <v>3.15</v>
       </c>
       <c r="J15">
-        <v>6.79</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -949,28 +958,28 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E16">
-        <v>4.92</v>
+        <v>5.01</v>
       </c>
       <c r="F16">
-        <v>4.6</v>
+        <v>4.97</v>
       </c>
       <c r="G16">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="I16">
-        <v>3.26</v>
+        <v>3.29</v>
       </c>
       <c r="J16">
-        <v>6.8</v>
+        <v>6.95</v>
       </c>
     </row>
   </sheetData>

--- a/example/colalab_plot_examples/example.xlsx
+++ b/example/colalab_plot_examples/example.xlsx
@@ -67,49 +67,49 @@
     <t>MOEA/D</t>
   </si>
   <si>
-    <t>[0.49, 0.01, 1.41, 0.01, 0.1, 2.19, 2.01, 1.91, -0.73, 0.39]</t>
-  </si>
-  <si>
-    <t>[-0.49, 0.36, 1.52, 0.03, 0.07, 1.86, 1.67, 1.56, 0.03, -0.22]</t>
-  </si>
-  <si>
-    <t>[-0.26, 0.07, 2.13, 0.3, -0.52, 2.77, 2.31, 2.0, -0.6, 0.12]</t>
-  </si>
-  <si>
-    <t>[3.49, 0.26, 3.37, 0.95, 2.22, 0.74, 1.6, 1.23, 3.26, 1.49]</t>
-  </si>
-  <si>
-    <t>[2.88, 0.85, 3.05, 0.93, 2.36, 1.45, 1.01, 1.25, 3.28, 1.51]</t>
-  </si>
-  <si>
-    <t>[3.49, 0.37, 3.45, 0.82, 2.99, 0.94, 1.43, 1.36, 2.51, 1.25]</t>
-  </si>
-  <si>
-    <t>[4.3, 4.1, 4.0, 3.75, 2.29, 2.03, 1.82, 3.58, 1.8, 2.31]</t>
-  </si>
-  <si>
-    <t>[3.66, 4.87, 3.69, 3.71, 1.65, 1.9, 1.88, 3.81, 2.38, 2.38]</t>
-  </si>
-  <si>
-    <t>[3.88, 4.0, 4.56, 4.02, 2.3, 2.01, 1.93, 3.37, 1.95, 1.99]</t>
-  </si>
-  <si>
-    <t>[4.68, 5.39, 3.08, 2.94, 3.21, 5.46, 5.25, 2.8, 2.86, 4.95]</t>
-  </si>
-  <si>
-    <t>[4.56, 5.41, 3.76, 3.14, 3.37, 5.26, 5.04, 3.51, 2.43, 5.32]</t>
-  </si>
-  <si>
-    <t>[5.07, 5.21, 3.29, 3.51, 2.82, 5.4, 4.51, 2.97, 2.82, 4.83]</t>
-  </si>
-  <si>
-    <t>[5.55, 5.58, 3.72, 6.36, 3.97, 5.55, 5.22, 4.38, 3.84, 4.53]</t>
-  </si>
-  <si>
-    <t>[5.74, 5.38, 3.7, 6.41, 3.72, 6.06, 5.99, 4.65, 3.79, 4.54]</t>
-  </si>
-  <si>
-    <t>[5.58, 5.17, 3.4, 6.12, 3.58, 5.69, 5.84, 4.16, 3.32, 4.33]</t>
+    <t>[-0.63, 1.64, 1.27, 2.56, 2.75, 2.07, 0.11, -0.27, -0.49, 1.88]</t>
+  </si>
+  <si>
+    <t>[-0.36, 2.0, 1.74, 1.93, 2.27, 2.2, 0.08, -0.12, -0.02, 1.62]</t>
+  </si>
+  <si>
+    <t>[0.12, 2.42, 1.77, 2.11, 2.74, 1.71, 0.48, 0.04, 0.15, 2.41]</t>
+  </si>
+  <si>
+    <t>[0.74, 1.39, 3.17, 0.45, 3.17, 1.44, 3.11, 3.89, 0.46, 1.28]</t>
+  </si>
+  <si>
+    <t>[0.45, 1.33, 2.56, 0.97, 2.86, 0.86, 2.99, 3.74, 0.47, 1.0]</t>
+  </si>
+  <si>
+    <t>[1.29, 0.66, 2.53, 0.35, 2.69, 1.05, 3.25, 3.34, 0.34, 1.22]</t>
+  </si>
+  <si>
+    <t>[3.99, 1.69, 1.8, 2.31, 4.0, 3.61, 3.48, 4.08, 2.52, 4.42]</t>
+  </si>
+  <si>
+    <t>[4.09, 1.65, 1.54, 1.73, 3.2, 3.37, 3.2, 4.58, 2.64, 3.99]</t>
+  </si>
+  <si>
+    <t>[4.2, 2.33, 1.97, 2.34, 4.18, 3.69, 4.08, 4.68, 2.23, 4.7]</t>
+  </si>
+  <si>
+    <t>[5.2, 4.41, 4.98, 3.23, 3.14, 2.62, 5.28, 2.94, 2.63, 2.92]</t>
+  </si>
+  <si>
+    <t>[4.78, 4.81, 4.91, 2.57, 2.52, 3.04, 5.77, 2.53, 2.91, 2.97]</t>
+  </si>
+  <si>
+    <t>[5.11, 5.35, 5.22, 2.31, 3.43, 3.0, 5.54, 3.17, 2.94, 2.34]</t>
+  </si>
+  <si>
+    <t>[4.32, 6.36, 3.71, 6.41, 6.18, 4.69, 5.63, 3.86, 3.58, 3.95]</t>
+  </si>
+  <si>
+    <t>[3.95, 6.38, 3.79, 5.83, 6.23, 4.57, 5.75, 3.65, 3.63, 4.01]</t>
+  </si>
+  <si>
+    <t>[3.89, 6.68, 3.68, 6.49, 6.0, 4.42, 5.61, 3.97, 3.62, 4.03]</t>
   </si>
 </sst>
 </file>
@@ -516,22 +516,22 @@
         <v>17</v>
       </c>
       <c r="E2">
-        <v>1.17</v>
+        <v>0.99</v>
       </c>
       <c r="F2">
-        <v>1.41</v>
+        <v>1.06</v>
       </c>
       <c r="G2">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="H2">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="I2">
-        <v>-0.92</v>
+        <v>-0.74</v>
       </c>
       <c r="J2">
-        <v>2.91</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -548,22 +548,22 @@
         <v>18</v>
       </c>
       <c r="E3">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1.53</v>
+        <v>0.8</v>
       </c>
       <c r="G3">
         <v>1.06</v>
       </c>
       <c r="H3">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="I3">
-        <v>-0.58</v>
+        <v>-0.8</v>
       </c>
       <c r="J3">
-        <v>2.89</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -580,22 +580,22 @@
         <v>19</v>
       </c>
       <c r="E4">
-        <v>1.14</v>
+        <v>1.03</v>
       </c>
       <c r="F4">
-        <v>1.51</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="H4">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="I4">
-        <v>-0.88</v>
+        <v>-0.78</v>
       </c>
       <c r="J4">
-        <v>2.81</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -612,22 +612,22 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="F5">
-        <v>1.87</v>
+        <v>1.72</v>
       </c>
       <c r="G5">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="H5">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="I5">
-        <v>0.26</v>
+        <v>0.14</v>
       </c>
       <c r="J5">
-        <v>3.92</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -644,22 +644,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="F6">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="G6">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="H6">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="I6">
-        <v>0.24</v>
+        <v>0.13</v>
       </c>
       <c r="J6">
-        <v>3.94</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -676,22 +676,22 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="F7">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="G7">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
       <c r="H7">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="I7">
-        <v>0.22</v>
+        <v>0.01</v>
       </c>
       <c r="J7">
-        <v>3.92</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -708,22 +708,22 @@
         <v>23</v>
       </c>
       <c r="E8">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="F8">
-        <v>2.7</v>
+        <v>3.42</v>
       </c>
       <c r="G8">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="H8">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="I8">
-        <v>1.29</v>
+        <v>1.08</v>
       </c>
       <c r="J8">
-        <v>4.88</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -740,22 +740,22 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>2.93</v>
+        <v>3.03</v>
       </c>
       <c r="F9">
-        <v>2.75</v>
+        <v>3.23</v>
       </c>
       <c r="G9">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="H9">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="I9">
-        <v>1.27</v>
+        <v>1.15</v>
       </c>
       <c r="J9">
-        <v>4.87</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -772,22 +772,22 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>2.94</v>
+        <v>3.06</v>
       </c>
       <c r="F10">
-        <v>2.78</v>
+        <v>3.29</v>
       </c>
       <c r="G10">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="H10">
-        <v>2.03</v>
+        <v>2.07</v>
       </c>
       <c r="I10">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="J10">
-        <v>4.56</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -804,22 +804,22 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>4.01</v>
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>4.39</v>
+        <v>3.82</v>
       </c>
       <c r="G11">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="H11">
-        <v>2.07</v>
+        <v>2.14</v>
       </c>
       <c r="I11">
-        <v>2.17</v>
+        <v>2.09</v>
       </c>
       <c r="J11">
-        <v>5.72</v>
+        <v>5.77</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -836,22 +836,22 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>4.06</v>
+        <v>3.94</v>
       </c>
       <c r="F12">
-        <v>4.37</v>
+        <v>3.74</v>
       </c>
       <c r="G12">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="H12">
+        <v>1.95</v>
+      </c>
+      <c r="I12">
         <v>2.08</v>
       </c>
-      <c r="I12">
-        <v>2.26</v>
-      </c>
       <c r="J12">
-        <v>5.79</v>
+        <v>5.82</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -871,19 +871,19 @@
         <v>3.96</v>
       </c>
       <c r="F13">
-        <v>4.28</v>
+        <v>3.78</v>
       </c>
       <c r="G13">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="H13">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="I13">
-        <v>2.21</v>
+        <v>2.18</v>
       </c>
       <c r="J13">
-        <v>5.76</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -900,22 +900,22 @@
         <v>29</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>5.08</v>
       </c>
       <c r="F14">
-        <v>4.94</v>
+        <v>5.33</v>
       </c>
       <c r="G14">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="H14">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="I14">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J14">
-        <v>6.85</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -932,22 +932,22 @@
         <v>30</v>
       </c>
       <c r="E15">
-        <v>5.04</v>
+        <v>5.11</v>
       </c>
       <c r="F15">
-        <v>4.97</v>
+        <v>5.59</v>
       </c>
       <c r="G15">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="I15">
-        <v>3.15</v>
+        <v>3.13</v>
       </c>
       <c r="J15">
-        <v>6.94</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -964,22 +964,22 @@
         <v>31</v>
       </c>
       <c r="E16">
-        <v>5.01</v>
+        <v>5.03</v>
       </c>
       <c r="F16">
-        <v>4.97</v>
+        <v>5.53</v>
       </c>
       <c r="G16">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="H16">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>3.29</v>
+        <v>3.1</v>
       </c>
       <c r="J16">
-        <v>6.95</v>
+        <v>6.87</v>
       </c>
     </row>
   </sheetData>

--- a/example/colalab_plot_examples/example.xlsx
+++ b/example/colalab_plot_examples/example.xlsx
@@ -67,49 +67,49 @@
     <t>MOEA/D</t>
   </si>
   <si>
-    <t>[-0.63, 1.64, 1.27, 2.56, 2.75, 2.07, 0.11, -0.27, -0.49, 1.88]</t>
-  </si>
-  <si>
-    <t>[-0.36, 2.0, 1.74, 1.93, 2.27, 2.2, 0.08, -0.12, -0.02, 1.62]</t>
-  </si>
-  <si>
-    <t>[0.12, 2.42, 1.77, 2.11, 2.74, 1.71, 0.48, 0.04, 0.15, 2.41]</t>
-  </si>
-  <si>
-    <t>[0.74, 1.39, 3.17, 0.45, 3.17, 1.44, 3.11, 3.89, 0.46, 1.28]</t>
-  </si>
-  <si>
-    <t>[0.45, 1.33, 2.56, 0.97, 2.86, 0.86, 2.99, 3.74, 0.47, 1.0]</t>
-  </si>
-  <si>
-    <t>[1.29, 0.66, 2.53, 0.35, 2.69, 1.05, 3.25, 3.34, 0.34, 1.22]</t>
-  </si>
-  <si>
-    <t>[3.99, 1.69, 1.8, 2.31, 4.0, 3.61, 3.48, 4.08, 2.52, 4.42]</t>
-  </si>
-  <si>
-    <t>[4.09, 1.65, 1.54, 1.73, 3.2, 3.37, 3.2, 4.58, 2.64, 3.99]</t>
-  </si>
-  <si>
-    <t>[4.2, 2.33, 1.97, 2.34, 4.18, 3.69, 4.08, 4.68, 2.23, 4.7]</t>
-  </si>
-  <si>
-    <t>[5.2, 4.41, 4.98, 3.23, 3.14, 2.62, 5.28, 2.94, 2.63, 2.92]</t>
-  </si>
-  <si>
-    <t>[4.78, 4.81, 4.91, 2.57, 2.52, 3.04, 5.77, 2.53, 2.91, 2.97]</t>
-  </si>
-  <si>
-    <t>[5.11, 5.35, 5.22, 2.31, 3.43, 3.0, 5.54, 3.17, 2.94, 2.34]</t>
-  </si>
-  <si>
-    <t>[4.32, 6.36, 3.71, 6.41, 6.18, 4.69, 5.63, 3.86, 3.58, 3.95]</t>
-  </si>
-  <si>
-    <t>[3.95, 6.38, 3.79, 5.83, 6.23, 4.57, 5.75, 3.65, 3.63, 4.01]</t>
-  </si>
-  <si>
-    <t>[3.89, 6.68, 3.68, 6.49, 6.0, 4.42, 5.61, 3.97, 3.62, 4.03]</t>
+    <t>[2.45, -0.2, -0.43, 2.06, 0.23, 1.97, 0.17, 1.3, 1.53, -0.06]</t>
+  </si>
+  <si>
+    <t>[2.22, 0.07, -0.42, 2.0, -0.26, 1.97, 0.28, 1.75, 1.99, 0.05]</t>
+  </si>
+  <si>
+    <t>[1.65, -0.71, -0.26, 1.54, -0.08, 1.76, -0.23, 1.22, 1.75, -0.06]</t>
+  </si>
+  <si>
+    <t>[2.17, 3.43, 0.95, 2.27, 1.01, 2.96, 0.95, 2.99, 3.71, 3.07]</t>
+  </si>
+  <si>
+    <t>[2.71, 3.03, 0.77, 2.73, 0.79, 2.48, 1.09, 2.59, 3.33, 3.02]</t>
+  </si>
+  <si>
+    <t>[2.58, 3.5, 0.55, 2.45, 0.98, 3.22, 1.25, 2.82, 3.91, 3.34]</t>
+  </si>
+  <si>
+    <t>[3.26, 3.56, 2.44, 1.4, 1.93, 2.62, 2.81, 1.65, 1.87, 1.73]</t>
+  </si>
+  <si>
+    <t>[3.87, 3.12, 2.9, 1.34, 1.85, 2.45, 2.53, 1.99, 1.18, 2.35]</t>
+  </si>
+  <si>
+    <t>[3.82, 3.55, 2.5, 1.77, 1.7, 2.64, 2.61, 1.96, 1.43, 2.2]</t>
+  </si>
+  <si>
+    <t>[3.21, 5.03, 4.41, 4.92, 2.79, 4.83, 5.02, 3.31, 2.54, 4.78]</t>
+  </si>
+  <si>
+    <t>[2.71, 5.03, 4.76, 4.33, 2.25, 4.94, 5.0, 3.01, 2.28, 5.07]</t>
+  </si>
+  <si>
+    <t>[3.33, 4.95, 4.42, 4.15, 3.03, 4.99, 4.38, 3.39, 2.45, 4.79]</t>
+  </si>
+  <si>
+    <t>[6.54, 5.74, 3.64, 5.96, 3.97, 6.47, 4.29, 3.96, 6.49, 4.18]</t>
+  </si>
+  <si>
+    <t>[5.7, 5.99, 3.28, 5.71, 4.09, 6.4, 4.2, 4.07, 5.76, 3.75]</t>
+  </si>
+  <si>
+    <t>[5.59, 5.86, 3.61, 6.0, 4.21, 6.66, 4.58, 4.49, 6.2, 3.58]</t>
   </si>
 </sst>
 </file>
@@ -519,19 +519,19 @@
         <v>0.99</v>
       </c>
       <c r="F2">
-        <v>1.06</v>
+        <v>0.99</v>
       </c>
       <c r="G2">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="H2">
-        <v>1.89</v>
+        <v>1.97</v>
       </c>
       <c r="I2">
-        <v>-0.74</v>
+        <v>-0.75</v>
       </c>
       <c r="J2">
-        <v>2.87</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -548,22 +548,22 @@
         <v>18</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="F3">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G3">
         <v>1.06</v>
       </c>
       <c r="H3">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="I3">
-        <v>-0.8</v>
+        <v>-0.88</v>
       </c>
       <c r="J3">
-        <v>2.83</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -580,22 +580,22 @@
         <v>19</v>
       </c>
       <c r="E4">
-        <v>1.03</v>
+        <v>0.98</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="G4">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="H4">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="I4">
-        <v>-0.78</v>
+        <v>-0.85</v>
       </c>
       <c r="J4">
-        <v>2.85</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -612,22 +612,22 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1.91</v>
+        <v>2.18</v>
       </c>
       <c r="F5">
-        <v>1.72</v>
+        <v>2.66</v>
       </c>
       <c r="G5">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="H5">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="I5">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="J5">
-        <v>3.91</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -644,22 +644,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1.9</v>
+        <v>2.19</v>
       </c>
       <c r="F6">
-        <v>1.81</v>
+        <v>2.61</v>
       </c>
       <c r="G6">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="H6">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="I6">
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="J6">
-        <v>3.8</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -676,22 +676,22 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1.87</v>
+        <v>2.18</v>
       </c>
       <c r="F7">
-        <v>1.79</v>
+        <v>2.61</v>
       </c>
       <c r="G7">
         <v>1.1</v>
       </c>
       <c r="H7">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="I7">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="J7">
-        <v>3.87</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -708,22 +708,22 @@
         <v>23</v>
       </c>
       <c r="E8">
-        <v>3.1</v>
+        <v>3.04</v>
       </c>
       <c r="F8">
-        <v>3.42</v>
+        <v>3.39</v>
       </c>
       <c r="G8">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="H8">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="I8">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="J8">
-        <v>4.94</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -740,22 +740,22 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>3.03</v>
+        <v>3.07</v>
       </c>
       <c r="F9">
-        <v>3.23</v>
+        <v>3.48</v>
       </c>
       <c r="G9">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="H9">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="I9">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="J9">
-        <v>4.84</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -772,22 +772,22 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>3.06</v>
+        <v>3.11</v>
       </c>
       <c r="F10">
-        <v>3.29</v>
+        <v>3.38</v>
       </c>
       <c r="G10">
         <v>1.07</v>
       </c>
       <c r="H10">
-        <v>2.07</v>
+        <v>1.91</v>
       </c>
       <c r="I10">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="J10">
-        <v>4.7</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -804,22 +804,22 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>3.91</v>
       </c>
       <c r="F11">
-        <v>3.82</v>
+        <v>4.08</v>
       </c>
       <c r="G11">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="H11">
+        <v>2.03</v>
+      </c>
+      <c r="I11">
         <v>2.14</v>
       </c>
-      <c r="I11">
-        <v>2.09</v>
-      </c>
       <c r="J11">
-        <v>5.77</v>
+        <v>5.82</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -836,22 +836,22 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>3.94</v>
+        <v>3.99</v>
       </c>
       <c r="F12">
-        <v>3.74</v>
+        <v>4.09</v>
       </c>
       <c r="G12">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="H12">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="I12">
-        <v>2.08</v>
+        <v>2.25</v>
       </c>
       <c r="J12">
-        <v>5.82</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -868,22 +868,22 @@
         <v>28</v>
       </c>
       <c r="E13">
-        <v>3.96</v>
+        <v>3.98</v>
       </c>
       <c r="F13">
-        <v>3.78</v>
+        <v>4.01</v>
       </c>
       <c r="G13">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="H13">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="I13">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
       <c r="J13">
-        <v>5.71</v>
+        <v>5.96</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -900,22 +900,22 @@
         <v>29</v>
       </c>
       <c r="E14">
-        <v>5.08</v>
+        <v>5.03</v>
       </c>
       <c r="F14">
-        <v>5.33</v>
+        <v>5.41</v>
       </c>
       <c r="G14">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="H14">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I14">
-        <v>3.25</v>
+        <v>3.21</v>
       </c>
       <c r="J14">
-        <v>6.87</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -932,22 +932,22 @@
         <v>30</v>
       </c>
       <c r="E15">
-        <v>5.11</v>
+        <v>5.02</v>
       </c>
       <c r="F15">
-        <v>5.59</v>
+        <v>5.35</v>
       </c>
       <c r="G15">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="H15">
-        <v>2.13</v>
+        <v>1.95</v>
       </c>
       <c r="I15">
-        <v>3.13</v>
+        <v>3.14</v>
       </c>
       <c r="J15">
-        <v>6.84</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -964,22 +964,22 @@
         <v>31</v>
       </c>
       <c r="E16">
-        <v>5.03</v>
+        <v>5.07</v>
       </c>
       <c r="F16">
-        <v>5.53</v>
+        <v>5.36</v>
       </c>
       <c r="G16">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="I16">
-        <v>3.1</v>
+        <v>3.07</v>
       </c>
       <c r="J16">
-        <v>6.87</v>
+        <v>6.83</v>
       </c>
     </row>
   </sheetData>

--- a/example/colalab_plot_examples/example.xlsx
+++ b/example/colalab_plot_examples/example.xlsx
@@ -67,49 +67,49 @@
     <t>MOEA/D</t>
   </si>
   <si>
-    <t>[2.45, -0.2, -0.43, 2.06, 0.23, 1.97, 0.17, 1.3, 1.53, -0.06]</t>
-  </si>
-  <si>
-    <t>[2.22, 0.07, -0.42, 2.0, -0.26, 1.97, 0.28, 1.75, 1.99, 0.05]</t>
-  </si>
-  <si>
-    <t>[1.65, -0.71, -0.26, 1.54, -0.08, 1.76, -0.23, 1.22, 1.75, -0.06]</t>
-  </si>
-  <si>
-    <t>[2.17, 3.43, 0.95, 2.27, 1.01, 2.96, 0.95, 2.99, 3.71, 3.07]</t>
-  </si>
-  <si>
-    <t>[2.71, 3.03, 0.77, 2.73, 0.79, 2.48, 1.09, 2.59, 3.33, 3.02]</t>
-  </si>
-  <si>
-    <t>[2.58, 3.5, 0.55, 2.45, 0.98, 3.22, 1.25, 2.82, 3.91, 3.34]</t>
-  </si>
-  <si>
-    <t>[3.26, 3.56, 2.44, 1.4, 1.93, 2.62, 2.81, 1.65, 1.87, 1.73]</t>
-  </si>
-  <si>
-    <t>[3.87, 3.12, 2.9, 1.34, 1.85, 2.45, 2.53, 1.99, 1.18, 2.35]</t>
-  </si>
-  <si>
-    <t>[3.82, 3.55, 2.5, 1.77, 1.7, 2.64, 2.61, 1.96, 1.43, 2.2]</t>
-  </si>
-  <si>
-    <t>[3.21, 5.03, 4.41, 4.92, 2.79, 4.83, 5.02, 3.31, 2.54, 4.78]</t>
-  </si>
-  <si>
-    <t>[2.71, 5.03, 4.76, 4.33, 2.25, 4.94, 5.0, 3.01, 2.28, 5.07]</t>
-  </si>
-  <si>
-    <t>[3.33, 4.95, 4.42, 4.15, 3.03, 4.99, 4.38, 3.39, 2.45, 4.79]</t>
-  </si>
-  <si>
-    <t>[6.54, 5.74, 3.64, 5.96, 3.97, 6.47, 4.29, 3.96, 6.49, 4.18]</t>
-  </si>
-  <si>
-    <t>[5.7, 5.99, 3.28, 5.71, 4.09, 6.4, 4.2, 4.07, 5.76, 3.75]</t>
-  </si>
-  <si>
-    <t>[5.59, 5.86, 3.61, 6.0, 4.21, 6.66, 4.58, 4.49, 6.2, 3.58]</t>
+    <t>[-0.23, 2.51, 2.04, 1.89, -0.09, -0.33, 1.78, 1.99, -0.13, 0.1]</t>
+  </si>
+  <si>
+    <t>[0.03, 2.51, 1.59, 1.83, -0.14, -0.09, 1.55, 1.47, 0.09, -0.36]</t>
+  </si>
+  <si>
+    <t>[0.45, 1.95, 2.16, 2.25, 0.1, 0.47, 1.29, 2.38, 0.06, -0.47]</t>
+  </si>
+  <si>
+    <t>[3.27, 0.76, 0.71, 2.9, 2.3, 0.26, 1.47, 2.69, 2.99, 2.8]</t>
+  </si>
+  <si>
+    <t>[2.79, 0.86, 0.79, 3.4, 2.65, 0.33, 1.66, 3.35, 3.25, 2.72]</t>
+  </si>
+  <si>
+    <t>[3.72, 0.37, 0.97, 2.98, 2.71, 0.37, 1.49, 3.13, 3.24, 3.12]</t>
+  </si>
+  <si>
+    <t>[2.16, 1.49, 1.95, 3.91, 2.05, 4.04, 1.79, 1.97, 2.09, 2.6]</t>
+  </si>
+  <si>
+    <t>[1.5, 2.45, 1.8, 4.36, 2.49, 3.77, 1.53, 2.18, 2.26, 2.86]</t>
+  </si>
+  <si>
+    <t>[1.74, 2.04, 2.48, 4.52, 2.1, 4.18, 2.14, 1.57, 1.79, 2.92]</t>
+  </si>
+  <si>
+    <t>[3.13, 2.56, 2.88, 2.38, 2.74, 5.28, 2.58, 4.23, 5.38, 4.79]</t>
+  </si>
+  <si>
+    <t>[2.69, 2.88, 3.1, 2.93, 2.88, 4.61, 2.59, 4.49, 5.54, 4.95]</t>
+  </si>
+  <si>
+    <t>[2.51, 3.2, 3.59, 2.71, 2.67, 5.26, 2.99, 5.07, 5.85, 5.23]</t>
+  </si>
+  <si>
+    <t>[3.94, 3.96, 6.01, 3.35, 4.07, 4.1, 6.45, 3.59, 3.74, 4.05]</t>
+  </si>
+  <si>
+    <t>[3.15, 3.96, 5.81, 3.29, 4.26, 4.35, 6.07, 3.02, 4.26, 4.12]</t>
+  </si>
+  <si>
+    <t>[3.14, 3.61, 5.46, 3.45, 4.34, 4.12, 6.75, 3.58, 4.37, 4.22]</t>
   </si>
 </sst>
 </file>
@@ -516,22 +516,22 @@
         <v>17</v>
       </c>
       <c r="E2">
-        <v>0.99</v>
+        <v>1.16</v>
       </c>
       <c r="F2">
-        <v>0.99</v>
+        <v>1.39</v>
       </c>
       <c r="G2">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="H2">
-        <v>1.97</v>
+        <v>1.72</v>
       </c>
       <c r="I2">
-        <v>-0.75</v>
+        <v>-0.74</v>
       </c>
       <c r="J2">
-        <v>2.96</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -548,22 +548,22 @@
         <v>18</v>
       </c>
       <c r="E3">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="F3">
-        <v>0.9</v>
+        <v>1.37</v>
       </c>
       <c r="G3">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="H3">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>-0.88</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="J3">
-        <v>2.75</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -580,22 +580,22 @@
         <v>19</v>
       </c>
       <c r="E4">
-        <v>0.98</v>
+        <v>1.13</v>
       </c>
       <c r="F4">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="G4">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="H4">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="I4">
         <v>-0.85</v>
       </c>
       <c r="J4">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -612,22 +612,22 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>2.18</v>
+        <v>1.99</v>
       </c>
       <c r="F5">
-        <v>2.66</v>
+        <v>1.93</v>
       </c>
       <c r="G5">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="H5">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="I5">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="J5">
-        <v>3.74</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -644,22 +644,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2.19</v>
+        <v>2.02</v>
       </c>
       <c r="F6">
-        <v>2.61</v>
+        <v>1.86</v>
       </c>
       <c r="G6">
-        <v>1.07</v>
+        <v>1.17</v>
       </c>
       <c r="H6">
-        <v>2.04</v>
+        <v>2.27</v>
       </c>
       <c r="I6">
-        <v>0.03</v>
+        <v>0.24</v>
       </c>
       <c r="J6">
-        <v>3.76</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -676,22 +676,22 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="F7">
-        <v>2.61</v>
+        <v>1.74</v>
       </c>
       <c r="G7">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="H7">
-        <v>2.11</v>
+        <v>2.21</v>
       </c>
       <c r="I7">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="J7">
-        <v>3.91</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -708,22 +708,22 @@
         <v>23</v>
       </c>
       <c r="E8">
-        <v>3.04</v>
+        <v>3.06</v>
       </c>
       <c r="F8">
-        <v>3.39</v>
+        <v>3.27</v>
       </c>
       <c r="G8">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="H8">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="I8">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="J8">
-        <v>4.8</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -743,19 +743,19 @@
         <v>3.07</v>
       </c>
       <c r="F9">
-        <v>3.48</v>
+        <v>3.4</v>
       </c>
       <c r="G9">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="H9">
-        <v>1.89</v>
+        <v>2.06</v>
       </c>
       <c r="I9">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="J9">
-        <v>4.7</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -772,22 +772,22 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>3.11</v>
+        <v>3.08</v>
       </c>
       <c r="F10">
-        <v>3.38</v>
+        <v>3.25</v>
       </c>
       <c r="G10">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="H10">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="I10">
-        <v>1.1</v>
+        <v>1.23</v>
       </c>
       <c r="J10">
-        <v>4.72</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -804,22 +804,22 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>3.91</v>
+        <v>3.84</v>
       </c>
       <c r="F11">
-        <v>4.08</v>
+        <v>3.52</v>
       </c>
       <c r="G11">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>2.03</v>
+        <v>1.83</v>
       </c>
       <c r="I11">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="J11">
-        <v>5.82</v>
+        <v>5.79</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -836,22 +836,22 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>3.99</v>
+        <v>3.83</v>
       </c>
       <c r="F12">
-        <v>4.09</v>
+        <v>3.58</v>
       </c>
       <c r="G12">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="H12">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="I12">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="J12">
-        <v>5.75</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -868,22 +868,22 @@
         <v>28</v>
       </c>
       <c r="E13">
-        <v>3.98</v>
+        <v>3.83</v>
       </c>
       <c r="F13">
-        <v>4.01</v>
+        <v>3.51</v>
       </c>
       <c r="G13">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="H13">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="I13">
-        <v>2.07</v>
+        <v>2.26</v>
       </c>
       <c r="J13">
-        <v>5.96</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -900,22 +900,22 @@
         <v>29</v>
       </c>
       <c r="E14">
-        <v>5.03</v>
+        <v>4.98</v>
       </c>
       <c r="F14">
-        <v>5.41</v>
+        <v>5.14</v>
       </c>
       <c r="G14">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="H14">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="I14">
-        <v>3.21</v>
+        <v>3.06</v>
       </c>
       <c r="J14">
-        <v>6.88</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -932,22 +932,22 @@
         <v>30</v>
       </c>
       <c r="E15">
-        <v>5.02</v>
+        <v>4.97</v>
       </c>
       <c r="F15">
-        <v>5.35</v>
+        <v>5.2</v>
       </c>
       <c r="G15">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="H15">
-        <v>1.95</v>
+        <v>2.19</v>
       </c>
       <c r="I15">
-        <v>3.14</v>
+        <v>3.02</v>
       </c>
       <c r="J15">
-        <v>6.79</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -964,22 +964,22 @@
         <v>31</v>
       </c>
       <c r="E16">
-        <v>5.07</v>
+        <v>5.02</v>
       </c>
       <c r="F16">
-        <v>5.36</v>
+        <v>5.33</v>
       </c>
       <c r="G16">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="H16">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>3.07</v>
+        <v>3.14</v>
       </c>
       <c r="J16">
-        <v>6.83</v>
+        <v>6.75</v>
       </c>
     </row>
   </sheetData>

--- a/example/colalab_plot_examples/example.xlsx
+++ b/example/colalab_plot_examples/example.xlsx
@@ -67,49 +67,49 @@
     <t>MOEA/D</t>
   </si>
   <si>
-    <t>[-0.23, 2.51, 2.04, 1.89, -0.09, -0.33, 1.78, 1.99, -0.13, 0.1]</t>
-  </si>
-  <si>
-    <t>[0.03, 2.51, 1.59, 1.83, -0.14, -0.09, 1.55, 1.47, 0.09, -0.36]</t>
-  </si>
-  <si>
-    <t>[0.45, 1.95, 2.16, 2.25, 0.1, 0.47, 1.29, 2.38, 0.06, -0.47]</t>
-  </si>
-  <si>
-    <t>[3.27, 0.76, 0.71, 2.9, 2.3, 0.26, 1.47, 2.69, 2.99, 2.8]</t>
-  </si>
-  <si>
-    <t>[2.79, 0.86, 0.79, 3.4, 2.65, 0.33, 1.66, 3.35, 3.25, 2.72]</t>
-  </si>
-  <si>
-    <t>[3.72, 0.37, 0.97, 2.98, 2.71, 0.37, 1.49, 3.13, 3.24, 3.12]</t>
-  </si>
-  <si>
-    <t>[2.16, 1.49, 1.95, 3.91, 2.05, 4.04, 1.79, 1.97, 2.09, 2.6]</t>
-  </si>
-  <si>
-    <t>[1.5, 2.45, 1.8, 4.36, 2.49, 3.77, 1.53, 2.18, 2.26, 2.86]</t>
-  </si>
-  <si>
-    <t>[1.74, 2.04, 2.48, 4.52, 2.1, 4.18, 2.14, 1.57, 1.79, 2.92]</t>
-  </si>
-  <si>
-    <t>[3.13, 2.56, 2.88, 2.38, 2.74, 5.28, 2.58, 4.23, 5.38, 4.79]</t>
-  </si>
-  <si>
-    <t>[2.69, 2.88, 3.1, 2.93, 2.88, 4.61, 2.59, 4.49, 5.54, 4.95]</t>
-  </si>
-  <si>
-    <t>[2.51, 3.2, 3.59, 2.71, 2.67, 5.26, 2.99, 5.07, 5.85, 5.23]</t>
-  </si>
-  <si>
-    <t>[3.94, 3.96, 6.01, 3.35, 4.07, 4.1, 6.45, 3.59, 3.74, 4.05]</t>
-  </si>
-  <si>
-    <t>[3.15, 3.96, 5.81, 3.29, 4.26, 4.35, 6.07, 3.02, 4.26, 4.12]</t>
-  </si>
-  <si>
-    <t>[3.14, 3.61, 5.46, 3.45, 4.34, 4.12, 6.75, 3.58, 4.37, 4.22]</t>
+    <t>[1.09, -0.22, 0.17, 2.12, 1.8, -0.76, -0.07, 0.47, 2.03, -0.52]</t>
+  </si>
+  <si>
+    <t>[1.1, 0.01, 0.11, 1.64, 2.04, -0.67, -0.34, 0.47, 1.34, 0.07]</t>
+  </si>
+  <si>
+    <t>[1.2, 0.5, 0.02, 2.36, 1.97, -0.22, 0.51, -0.24, 1.48, -0.21]</t>
+  </si>
+  <si>
+    <t>[1.34, 0.76, 3.42, 2.38, 3.06, 1.54, 3.24, 2.24, 1.68, 2.83]</t>
+  </si>
+  <si>
+    <t>[1.13, 0.15, 2.78, 2.89, 2.55, 1.75, 2.66, 3.14, 1.75, 3.6]</t>
+  </si>
+  <si>
+    <t>[1.13, 0.9, 2.68, 2.8, 3.05, 1.87, 3.13, 2.85, 1.58, 2.7]</t>
+  </si>
+  <si>
+    <t>[1.46, 4.08, 2.23, 3.59, 2.1, 2.38, 2.3, 2.11, 1.88, 2.07]</t>
+  </si>
+  <si>
+    <t>[2.04, 4.65, 1.5, 3.41, 1.98, 2.26, 2.19, 1.78, 2.21, 2.24]</t>
+  </si>
+  <si>
+    <t>[1.96, 3.92, 1.5, 3.66, 2.36, 1.83, 2.75, 2.0, 1.7, 1.57]</t>
+  </si>
+  <si>
+    <t>[3.39, 5.86, 5.31, 5.48, 5.11, 5.27, 5.55, 3.47, 5.14, 5.53]</t>
+  </si>
+  <si>
+    <t>[3.09, 5.96, 5.51, 5.28, 4.14, 4.83, 5.42, 3.59, 4.58, 5.04]</t>
+  </si>
+  <si>
+    <t>[2.79, 5.38, 5.57, 4.89, 4.42, 5.75, 5.02, 3.57, 4.45, 4.76]</t>
+  </si>
+  <si>
+    <t>[4.88, 4.22, 5.51, 6.14, 3.84, 3.47, 4.23, 4.03, 4.08, 3.75]</t>
+  </si>
+  <si>
+    <t>[4.31, 3.99, 6.38, 6.77, 3.3, 3.49, 3.66, 3.98, 4.2, 3.89]</t>
+  </si>
+  <si>
+    <t>[4.04, 3.78, 5.8, 6.71, 3.29, 3.26, 4.5, 4.07, 3.76, 4.25]</t>
   </si>
 </sst>
 </file>
@@ -516,22 +516,22 @@
         <v>17</v>
       </c>
       <c r="E2">
-        <v>1.16</v>
+        <v>0.8</v>
       </c>
       <c r="F2">
-        <v>1.39</v>
+        <v>0.43</v>
       </c>
       <c r="G2">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="H2">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="I2">
-        <v>-0.74</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="J2">
-        <v>2.83</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -548,22 +548,22 @@
         <v>18</v>
       </c>
       <c r="E3">
-        <v>1.14</v>
+        <v>0.82</v>
       </c>
       <c r="F3">
-        <v>1.37</v>
+        <v>0.54</v>
       </c>
       <c r="G3">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="I3">
-        <v>-0.5600000000000001</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="J3">
-        <v>2.79</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -580,19 +580,19 @@
         <v>19</v>
       </c>
       <c r="E4">
-        <v>1.13</v>
+        <v>0.86</v>
       </c>
       <c r="F4">
-        <v>1.44</v>
+        <v>0.43</v>
       </c>
       <c r="G4">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="H4">
-        <v>1.97</v>
+        <v>1.88</v>
       </c>
       <c r="I4">
-        <v>-0.85</v>
+        <v>-0.87</v>
       </c>
       <c r="J4">
         <v>2.92</v>
@@ -615,19 +615,19 @@
         <v>1.99</v>
       </c>
       <c r="F5">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="G5">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="H5">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="J5">
-        <v>3.83</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -644,22 +644,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="F6">
-        <v>1.86</v>
+        <v>2.03</v>
       </c>
       <c r="G6">
-        <v>1.17</v>
+        <v>1.06</v>
       </c>
       <c r="H6">
-        <v>2.27</v>
+        <v>1.91</v>
       </c>
       <c r="I6">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="J6">
-        <v>3.92</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -676,22 +676,22 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="F7">
-        <v>1.74</v>
+        <v>2.06</v>
       </c>
       <c r="G7">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="H7">
-        <v>2.21</v>
+        <v>1.98</v>
       </c>
       <c r="I7">
-        <v>0.16</v>
+        <v>0.03</v>
       </c>
       <c r="J7">
-        <v>3.77</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -708,22 +708,22 @@
         <v>23</v>
       </c>
       <c r="E8">
-        <v>3.06</v>
+        <v>2.85</v>
       </c>
       <c r="F8">
-        <v>3.27</v>
+        <v>2.5</v>
       </c>
       <c r="G8">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="H8">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="I8">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="J8">
-        <v>4.83</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -740,22 +740,22 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>3.07</v>
+        <v>2.85</v>
       </c>
       <c r="F9">
-        <v>3.4</v>
+        <v>2.39</v>
       </c>
       <c r="G9">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="H9">
-        <v>2.06</v>
+        <v>2.01</v>
       </c>
       <c r="I9">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="J9">
-        <v>4.81</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -772,22 +772,22 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>3.08</v>
+        <v>2.8</v>
       </c>
       <c r="F10">
-        <v>3.25</v>
+        <v>2.47</v>
       </c>
       <c r="G10">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="H10">
-        <v>1.89</v>
+        <v>1.73</v>
       </c>
       <c r="I10">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="J10">
-        <v>4.9</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -804,22 +804,22 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>3.84</v>
+        <v>4.09</v>
       </c>
       <c r="F11">
-        <v>3.52</v>
+        <v>4.18</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="H11">
-        <v>1.83</v>
+        <v>2.11</v>
       </c>
       <c r="I11">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="J11">
-        <v>5.79</v>
+        <v>5.86</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -836,22 +836,22 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>3.83</v>
+        <v>3.99</v>
       </c>
       <c r="F12">
-        <v>3.58</v>
+        <v>4.17</v>
       </c>
       <c r="G12">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="H12">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="I12">
-        <v>2.12</v>
+        <v>2.19</v>
       </c>
       <c r="J12">
-        <v>5.93</v>
+        <v>5.96</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -868,22 +868,22 @@
         <v>28</v>
       </c>
       <c r="E13">
-        <v>3.83</v>
+        <v>4.04</v>
       </c>
       <c r="F13">
-        <v>3.51</v>
+        <v>4.41</v>
       </c>
       <c r="G13">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="H13">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="I13">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="J13">
-        <v>5.85</v>
+        <v>5.82</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -900,22 +900,22 @@
         <v>29</v>
       </c>
       <c r="E14">
-        <v>4.98</v>
+        <v>5.01</v>
       </c>
       <c r="F14">
-        <v>5.14</v>
+        <v>4.69</v>
       </c>
       <c r="G14">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="H14">
-        <v>2.02</v>
+        <v>2.09</v>
       </c>
       <c r="I14">
-        <v>3.06</v>
+        <v>3.26</v>
       </c>
       <c r="J14">
-        <v>6.65</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -932,22 +932,22 @@
         <v>30</v>
       </c>
       <c r="E15">
-        <v>4.97</v>
+        <v>4.91</v>
       </c>
       <c r="F15">
-        <v>5.2</v>
+        <v>4.51</v>
       </c>
       <c r="G15">
-        <v>1.12</v>
+        <v>1.05</v>
       </c>
       <c r="H15">
-        <v>2.19</v>
+        <v>1.91</v>
       </c>
       <c r="I15">
-        <v>3.02</v>
+        <v>3.21</v>
       </c>
       <c r="J15">
-        <v>6.89</v>
+        <v>6.78</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -964,22 +964,22 @@
         <v>31</v>
       </c>
       <c r="E16">
-        <v>5.02</v>
+        <v>4.97</v>
       </c>
       <c r="F16">
-        <v>5.33</v>
+        <v>4.68</v>
       </c>
       <c r="G16">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="I16">
         <v>3.14</v>
       </c>
       <c r="J16">
-        <v>6.75</v>
+        <v>6.79</v>
       </c>
     </row>
   </sheetData>

--- a/example/colalab_plot_examples/example.xlsx
+++ b/example/colalab_plot_examples/example.xlsx
@@ -67,49 +67,49 @@
     <t>MOEA/D</t>
   </si>
   <si>
-    <t>[1.09, -0.22, 0.17, 2.12, 1.8, -0.76, -0.07, 0.47, 2.03, -0.52]</t>
-  </si>
-  <si>
-    <t>[1.1, 0.01, 0.11, 1.64, 2.04, -0.67, -0.34, 0.47, 1.34, 0.07]</t>
-  </si>
-  <si>
-    <t>[1.2, 0.5, 0.02, 2.36, 1.97, -0.22, 0.51, -0.24, 1.48, -0.21]</t>
-  </si>
-  <si>
-    <t>[1.34, 0.76, 3.42, 2.38, 3.06, 1.54, 3.24, 2.24, 1.68, 2.83]</t>
-  </si>
-  <si>
-    <t>[1.13, 0.15, 2.78, 2.89, 2.55, 1.75, 2.66, 3.14, 1.75, 3.6]</t>
-  </si>
-  <si>
-    <t>[1.13, 0.9, 2.68, 2.8, 3.05, 1.87, 3.13, 2.85, 1.58, 2.7]</t>
-  </si>
-  <si>
-    <t>[1.46, 4.08, 2.23, 3.59, 2.1, 2.38, 2.3, 2.11, 1.88, 2.07]</t>
-  </si>
-  <si>
-    <t>[2.04, 4.65, 1.5, 3.41, 1.98, 2.26, 2.19, 1.78, 2.21, 2.24]</t>
-  </si>
-  <si>
-    <t>[1.96, 3.92, 1.5, 3.66, 2.36, 1.83, 2.75, 2.0, 1.7, 1.57]</t>
-  </si>
-  <si>
-    <t>[3.39, 5.86, 5.31, 5.48, 5.11, 5.27, 5.55, 3.47, 5.14, 5.53]</t>
-  </si>
-  <si>
-    <t>[3.09, 5.96, 5.51, 5.28, 4.14, 4.83, 5.42, 3.59, 4.58, 5.04]</t>
-  </si>
-  <si>
-    <t>[2.79, 5.38, 5.57, 4.89, 4.42, 5.75, 5.02, 3.57, 4.45, 4.76]</t>
-  </si>
-  <si>
-    <t>[4.88, 4.22, 5.51, 6.14, 3.84, 3.47, 4.23, 4.03, 4.08, 3.75]</t>
-  </si>
-  <si>
-    <t>[4.31, 3.99, 6.38, 6.77, 3.3, 3.49, 3.66, 3.98, 4.2, 3.89]</t>
-  </si>
-  <si>
-    <t>[4.04, 3.78, 5.8, 6.71, 3.29, 3.26, 4.5, 4.07, 3.76, 4.25]</t>
+    <t>[-0.21, 1.16, 2.43, 2.7, 1.87, -0.14, -0.07, -0.37, 0.37, 2.07]</t>
+  </si>
+  <si>
+    <t>[-0.07, 1.52, 1.81, 2.26, 2.74, 0.45, 0.46, -0.09, 0.4, 2.76]</t>
+  </si>
+  <si>
+    <t>[0.18, 1.69, 2.45, 2.1, 2.48, 0.58, -0.28, -0.06, -0.23, 2.59]</t>
+  </si>
+  <si>
+    <t>[0.52, 0.88, 2.59, 2.62, 3.3, 0.12, 1.39, 2.93, 0.55, 1.06]</t>
+  </si>
+  <si>
+    <t>[0.85, 1.0, 2.64, 2.94, 3.37, 0.46, 1.38, 2.54, 0.81, 0.2]</t>
+  </si>
+  <si>
+    <t>[0.57, 0.83, 2.97, 2.99, 3.33, 0.85, 1.76, 3.1, 1.07, 0.84]</t>
+  </si>
+  <si>
+    <t>[3.85, 3.78, 3.96, 2.17, 3.74, 4.43, 2.39, 3.51, 3.87, 3.93]</t>
+  </si>
+  <si>
+    <t>[3.74, 4.11, 4.35, 2.33, 3.83, 4.49, 1.45, 3.81, 4.34, 4.45]</t>
+  </si>
+  <si>
+    <t>[4.01, 3.6, 4.52, 2.6, 3.89, 4.19, 2.19, 4.09, 4.15, 4.51]</t>
+  </si>
+  <si>
+    <t>[5.05, 5.27, 3.0, 3.84, 3.03, 2.93, 3.01, 5.32, 2.98, 2.41]</t>
+  </si>
+  <si>
+    <t>[5.23, 5.24, 2.74, 3.05, 2.73, 2.77, 3.52, 5.42, 2.79, 2.1]</t>
+  </si>
+  <si>
+    <t>[5.43, 5.46, 2.62, 3.32, 3.07, 3.04, 3.18, 5.48, 2.91, 3.06]</t>
+  </si>
+  <si>
+    <t>[3.9, 5.55, 3.39, 4.05, 4.57, 4.25, 4.11, 3.7, 4.15, 3.84]</t>
+  </si>
+  <si>
+    <t>[4.23, 6.01, 3.56, 4.53, 4.18, 4.06, 4.4, 3.34, 4.01, 3.6]</t>
+  </si>
+  <si>
+    <t>[3.7, 5.22, 3.46, 4.42, 4.3, 3.83, 4.12, 3.83, 4.11, 3.93]</t>
   </si>
 </sst>
 </file>
@@ -516,22 +516,22 @@
         <v>17</v>
       </c>
       <c r="E2">
-        <v>0.8</v>
+        <v>1.13</v>
       </c>
       <c r="F2">
-        <v>0.43</v>
+        <v>1.55</v>
       </c>
       <c r="G2">
         <v>1.04</v>
       </c>
       <c r="H2">
-        <v>1.88</v>
+        <v>2.13</v>
       </c>
       <c r="I2">
-        <v>-0.8100000000000001</v>
+        <v>-0.75</v>
       </c>
       <c r="J2">
-        <v>2.71</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -548,22 +548,22 @@
         <v>18</v>
       </c>
       <c r="E3">
-        <v>0.82</v>
+        <v>1.15</v>
       </c>
       <c r="F3">
-        <v>0.54</v>
+        <v>1.47</v>
       </c>
       <c r="G3">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="H3">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>-0.9399999999999999</v>
+        <v>-0.67</v>
       </c>
       <c r="J3">
-        <v>2.71</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -580,22 +580,22 @@
         <v>19</v>
       </c>
       <c r="E4">
-        <v>0.86</v>
+        <v>1.19</v>
       </c>
       <c r="F4">
-        <v>0.43</v>
+        <v>1.6</v>
       </c>
       <c r="G4">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="H4">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="I4">
-        <v>-0.87</v>
+        <v>-0.65</v>
       </c>
       <c r="J4">
-        <v>2.92</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -612,22 +612,22 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="F5">
-        <v>1.99</v>
+        <v>1.75</v>
       </c>
       <c r="G5">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="I5">
-        <v>0.28</v>
+        <v>0.12</v>
       </c>
       <c r="J5">
-        <v>3.9</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -644,22 +644,22 @@
         <v>21</v>
       </c>
       <c r="E6">
+        <v>1.96</v>
+      </c>
+      <c r="F6">
+        <v>1.93</v>
+      </c>
+      <c r="G6">
+        <v>1.04</v>
+      </c>
+      <c r="H6">
         <v>1.97</v>
       </c>
-      <c r="F6">
-        <v>2.03</v>
-      </c>
-      <c r="G6">
-        <v>1.06</v>
-      </c>
-      <c r="H6">
-        <v>1.91</v>
-      </c>
       <c r="I6">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="J6">
-        <v>3.71</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -676,22 +676,22 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="F7">
-        <v>2.06</v>
+        <v>1.76</v>
       </c>
       <c r="G7">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="H7">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="I7">
-        <v>0.03</v>
+        <v>0.14</v>
       </c>
       <c r="J7">
-        <v>3.74</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -708,22 +708,22 @@
         <v>23</v>
       </c>
       <c r="E8">
-        <v>2.85</v>
+        <v>3.27</v>
       </c>
       <c r="F8">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="G8">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="H8">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="I8">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="J8">
-        <v>4.74</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -740,22 +740,22 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>2.85</v>
+        <v>3.3</v>
       </c>
       <c r="F9">
-        <v>2.39</v>
+        <v>3.76</v>
       </c>
       <c r="G9">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="H9">
-        <v>2.01</v>
+        <v>2.09</v>
       </c>
       <c r="I9">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="J9">
-        <v>4.85</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -772,22 +772,22 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>2.8</v>
+        <v>3.31</v>
       </c>
       <c r="F10">
-        <v>2.47</v>
+        <v>3.75</v>
       </c>
       <c r="G10">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="H10">
-        <v>1.73</v>
+        <v>2.03</v>
       </c>
       <c r="I10">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="J10">
-        <v>4.84</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -804,22 +804,22 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>4.09</v>
+        <v>4.04</v>
       </c>
       <c r="F11">
-        <v>4.18</v>
+        <v>3.9</v>
       </c>
       <c r="G11">
-        <v>1.12</v>
+        <v>1.05</v>
       </c>
       <c r="H11">
-        <v>2.11</v>
+        <v>1.93</v>
       </c>
       <c r="I11">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="J11">
-        <v>5.86</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -836,22 +836,22 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>3.99</v>
+        <v>4.01</v>
       </c>
       <c r="F12">
-        <v>4.17</v>
+        <v>3.83</v>
       </c>
       <c r="G12">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="H12">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="I12">
-        <v>2.19</v>
+        <v>2.1</v>
       </c>
       <c r="J12">
-        <v>5.96</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -868,22 +868,22 @@
         <v>28</v>
       </c>
       <c r="E13">
-        <v>4.04</v>
+        <v>4</v>
       </c>
       <c r="F13">
-        <v>4.41</v>
+        <v>3.87</v>
       </c>
       <c r="G13">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="H13">
-        <v>2.04</v>
+        <v>1.82</v>
       </c>
       <c r="I13">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="J13">
-        <v>5.82</v>
+        <v>5.84</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -903,19 +903,19 @@
         <v>5.01</v>
       </c>
       <c r="F14">
-        <v>4.69</v>
+        <v>4.93</v>
       </c>
       <c r="G14">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="H14">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="I14">
-        <v>3.26</v>
+        <v>3.07</v>
       </c>
       <c r="J14">
-        <v>6.87</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -932,22 +932,22 @@
         <v>30</v>
       </c>
       <c r="E15">
-        <v>4.91</v>
+        <v>4.97</v>
       </c>
       <c r="F15">
-        <v>4.51</v>
+        <v>4.98</v>
       </c>
       <c r="G15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="H15">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="I15">
-        <v>3.21</v>
+        <v>3.25</v>
       </c>
       <c r="J15">
-        <v>6.78</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -964,22 +964,22 @@
         <v>31</v>
       </c>
       <c r="E16">
-        <v>4.97</v>
+        <v>5</v>
       </c>
       <c r="F16">
-        <v>4.68</v>
+        <v>4.99</v>
       </c>
       <c r="G16">
-        <v>1.11</v>
+        <v>1.03</v>
       </c>
       <c r="H16">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>3.14</v>
+        <v>3.38</v>
       </c>
       <c r="J16">
-        <v>6.79</v>
+        <v>6.84</v>
       </c>
     </row>
   </sheetData>

--- a/example/colalab_plot_examples/example.xlsx
+++ b/example/colalab_plot_examples/example.xlsx
@@ -67,49 +67,49 @@
     <t>MOEA/D</t>
   </si>
   <si>
-    <t>[-0.21, 1.16, 2.43, 2.7, 1.87, -0.14, -0.07, -0.37, 0.37, 2.07]</t>
-  </si>
-  <si>
-    <t>[-0.07, 1.52, 1.81, 2.26, 2.74, 0.45, 0.46, -0.09, 0.4, 2.76]</t>
-  </si>
-  <si>
-    <t>[0.18, 1.69, 2.45, 2.1, 2.48, 0.58, -0.28, -0.06, -0.23, 2.59]</t>
-  </si>
-  <si>
-    <t>[0.52, 0.88, 2.59, 2.62, 3.3, 0.12, 1.39, 2.93, 0.55, 1.06]</t>
-  </si>
-  <si>
-    <t>[0.85, 1.0, 2.64, 2.94, 3.37, 0.46, 1.38, 2.54, 0.81, 0.2]</t>
-  </si>
-  <si>
-    <t>[0.57, 0.83, 2.97, 2.99, 3.33, 0.85, 1.76, 3.1, 1.07, 0.84]</t>
-  </si>
-  <si>
-    <t>[3.85, 3.78, 3.96, 2.17, 3.74, 4.43, 2.39, 3.51, 3.87, 3.93]</t>
-  </si>
-  <si>
-    <t>[3.74, 4.11, 4.35, 2.33, 3.83, 4.49, 1.45, 3.81, 4.34, 4.45]</t>
-  </si>
-  <si>
-    <t>[4.01, 3.6, 4.52, 2.6, 3.89, 4.19, 2.19, 4.09, 4.15, 4.51]</t>
-  </si>
-  <si>
-    <t>[5.05, 5.27, 3.0, 3.84, 3.03, 2.93, 3.01, 5.32, 2.98, 2.41]</t>
-  </si>
-  <si>
-    <t>[5.23, 5.24, 2.74, 3.05, 2.73, 2.77, 3.52, 5.42, 2.79, 2.1]</t>
-  </si>
-  <si>
-    <t>[5.43, 5.46, 2.62, 3.32, 3.07, 3.04, 3.18, 5.48, 2.91, 3.06]</t>
-  </si>
-  <si>
-    <t>[3.9, 5.55, 3.39, 4.05, 4.57, 4.25, 4.11, 3.7, 4.15, 3.84]</t>
-  </si>
-  <si>
-    <t>[4.23, 6.01, 3.56, 4.53, 4.18, 4.06, 4.4, 3.34, 4.01, 3.6]</t>
-  </si>
-  <si>
-    <t>[3.7, 5.22, 3.46, 4.42, 4.3, 3.83, 4.12, 3.83, 4.11, 3.93]</t>
+    <t>[-0.53, 2.11, -0.46, 0.52, 2.74, 2.18, 0.49, 2.19, 2.27, 2.13]</t>
+  </si>
+  <si>
+    <t>[-0.81, 2.24, 0.15, -0.22, 2.63, 1.5, 0.64, 1.91, 2.08, 2.24]</t>
+  </si>
+  <si>
+    <t>[-0.74, 2.22, 0.35, -0.36, 2.16, 1.97, 0.98, 2.57, 2.15, 1.91]</t>
+  </si>
+  <si>
+    <t>[0.6, 3.8, 3.81, 2.57, 0.46, 0.92, 0.25, 0.74, 0.9, 1.63]</t>
+  </si>
+  <si>
+    <t>[0.32, 3.34, 3.47, 2.53, 1.3, 0.49, 0.33, 1.24, 1.7, 1.16]</t>
+  </si>
+  <si>
+    <t>[0.85, 3.85, 3.07, 2.39, 0.46, 0.9, 1.06, 0.82, 1.43, 1.07]</t>
+  </si>
+  <si>
+    <t>[3.77, 1.81, 3.65, 1.87, 2.06, 1.61, 1.77, 1.4, 1.85, 3.25]</t>
+  </si>
+  <si>
+    <t>[4.17, 2.34, 3.65, 2.11, 1.35, 1.81, 1.72, 1.55, 2.03, 3.6]</t>
+  </si>
+  <si>
+    <t>[3.29, 2.55, 3.85, 1.64, 2.07, 1.72, 1.78, 1.18, 2.48, 3.89]</t>
+  </si>
+  <si>
+    <t>[3.98, 5.22, 4.9, 2.25, 3.15, 3.34, 4.95, 2.82, 5.02, 2.28]</t>
+  </si>
+  <si>
+    <t>[3.17, 5.4, 5.34, 2.39, 3.48, 2.97, 5.39, 3.06, 4.24, 2.86]</t>
+  </si>
+  <si>
+    <t>[3.21, 5.51, 5.6, 2.15, 3.38, 3.81, 4.52, 2.55, 4.71, 2.27]</t>
+  </si>
+  <si>
+    <t>[6.42, 6.37, 6.57, 6.74, 5.49, 3.93, 6.49, 5.73, 3.38, 6.52]</t>
+  </si>
+  <si>
+    <t>[6.45, 5.81, 6.65, 6.27, 5.66, 3.57, 6.92, 5.89, 3.15, 6.43]</t>
+  </si>
+  <si>
+    <t>[6.18, 5.89, 6.18, 6.48, 5.4, 3.79, 6.7, 6.31, 3.41, 6.41]</t>
   </si>
 </sst>
 </file>
@@ -516,22 +516,22 @@
         <v>17</v>
       </c>
       <c r="E2">
-        <v>1.13</v>
+        <v>0.89</v>
       </c>
       <c r="F2">
-        <v>1.55</v>
+        <v>0.52</v>
       </c>
       <c r="G2">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="H2">
-        <v>2.13</v>
+        <v>1.97</v>
       </c>
       <c r="I2">
-        <v>-0.75</v>
+        <v>-0.76</v>
       </c>
       <c r="J2">
-        <v>2.89</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -548,22 +548,22 @@
         <v>18</v>
       </c>
       <c r="E3">
-        <v>1.15</v>
+        <v>0.92</v>
       </c>
       <c r="F3">
-        <v>1.47</v>
+        <v>0.55</v>
       </c>
       <c r="G3">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="I3">
-        <v>-0.67</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="J3">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -580,22 +580,22 @@
         <v>19</v>
       </c>
       <c r="E4">
-        <v>1.19</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F4">
-        <v>1.6</v>
+        <v>0.61</v>
       </c>
       <c r="G4">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="H4">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="I4">
-        <v>-0.65</v>
+        <v>-0.74</v>
       </c>
       <c r="J4">
-        <v>2.73</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -612,22 +612,22 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="F5">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="G5">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="H5">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="J5">
-        <v>3.68</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -647,16 +647,16 @@
         <v>1.96</v>
       </c>
       <c r="F6">
+        <v>1.73</v>
+      </c>
+      <c r="G6">
+        <v>1.09</v>
+      </c>
+      <c r="H6">
         <v>1.93</v>
       </c>
-      <c r="G6">
-        <v>1.04</v>
-      </c>
-      <c r="H6">
-        <v>1.97</v>
-      </c>
       <c r="I6">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="J6">
         <v>3.83</v>
@@ -679,19 +679,19 @@
         <v>1.97</v>
       </c>
       <c r="F7">
-        <v>1.76</v>
+        <v>1.88</v>
       </c>
       <c r="G7">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="H7">
-        <v>2.08</v>
+        <v>2.01</v>
       </c>
       <c r="I7">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="J7">
-        <v>3.92</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -708,22 +708,22 @@
         <v>23</v>
       </c>
       <c r="E8">
-        <v>3.27</v>
+        <v>2.97</v>
       </c>
       <c r="F8">
-        <v>3.75</v>
+        <v>3.26</v>
       </c>
       <c r="G8">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="H8">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="I8">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="J8">
-        <v>4.92</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -740,22 +740,22 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>3.3</v>
+        <v>2.96</v>
       </c>
       <c r="F9">
-        <v>3.76</v>
+        <v>3.24</v>
       </c>
       <c r="G9">
-        <v>1.12</v>
+        <v>1.02</v>
       </c>
       <c r="H9">
-        <v>2.09</v>
+        <v>1.84</v>
       </c>
       <c r="I9">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="J9">
-        <v>4.74</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -772,22 +772,22 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>3.31</v>
+        <v>2.99</v>
       </c>
       <c r="F10">
-        <v>3.75</v>
+        <v>3.28</v>
       </c>
       <c r="G10">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="H10">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="I10">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="J10">
-        <v>4.77</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -804,22 +804,22 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>4.04</v>
+        <v>4.03</v>
       </c>
       <c r="F11">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="G11">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="H11">
-        <v>1.93</v>
+        <v>1.76</v>
       </c>
       <c r="I11">
-        <v>2.26</v>
+        <v>2.13</v>
       </c>
       <c r="J11">
-        <v>5.88</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -836,22 +836,22 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>4.01</v>
+        <v>4.03</v>
       </c>
       <c r="F12">
-        <v>3.83</v>
+        <v>3.82</v>
       </c>
       <c r="G12">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="H12">
-        <v>2.14</v>
+        <v>1.92</v>
       </c>
       <c r="I12">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J12">
-        <v>5.97</v>
+        <v>5.83</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -868,22 +868,22 @@
         <v>28</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>4.04</v>
       </c>
       <c r="F13">
-        <v>3.87</v>
+        <v>3.9</v>
       </c>
       <c r="G13">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="H13">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="I13">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="J13">
-        <v>5.84</v>
+        <v>5.82</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -900,22 +900,22 @@
         <v>29</v>
       </c>
       <c r="E14">
-        <v>5.01</v>
+        <v>5.09</v>
       </c>
       <c r="F14">
-        <v>4.93</v>
+        <v>5.25</v>
       </c>
       <c r="G14">
-        <v>1.03</v>
+        <v>1.14</v>
       </c>
       <c r="H14">
-        <v>1.94</v>
+        <v>2.27</v>
       </c>
       <c r="I14">
-        <v>3.07</v>
+        <v>3.36</v>
       </c>
       <c r="J14">
-        <v>6.96</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -932,22 +932,22 @@
         <v>30</v>
       </c>
       <c r="E15">
-        <v>4.97</v>
+        <v>5.06</v>
       </c>
       <c r="F15">
-        <v>4.98</v>
+        <v>5.34</v>
       </c>
       <c r="G15">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="H15">
-        <v>1.9</v>
+        <v>2.13</v>
       </c>
       <c r="I15">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="J15">
-        <v>6.48</v>
+        <v>6.92</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -964,22 +964,22 @@
         <v>31</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>5.07</v>
       </c>
       <c r="F16">
-        <v>4.99</v>
+        <v>5.4</v>
       </c>
       <c r="G16">
-        <v>1.03</v>
+        <v>1.15</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>2.24</v>
       </c>
       <c r="I16">
-        <v>3.38</v>
+        <v>3.09</v>
       </c>
       <c r="J16">
-        <v>6.84</v>
+        <v>6.77</v>
       </c>
     </row>
   </sheetData>

--- a/example/colalab_plot_examples/example.xlsx
+++ b/example/colalab_plot_examples/example.xlsx
@@ -14,24 +14,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+  <si>
+    <t>Metric</t>
+  </si>
   <si>
     <t>Trial</t>
   </si>
   <si>
-    <t>average-HV (std)</t>
-  </si>
-  <si>
-    <t>average-IGD (std)</t>
-  </si>
-  <si>
-    <t>average-Epsilon (std)</t>
-  </si>
-  <si>
-    <t>average-GD (std)</t>
-  </si>
-  <si>
-    <t>average-Spread (std)</t>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Std</t>
+  </si>
+  <si>
+    <t>IQR</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>HV</t>
+  </si>
+  <si>
+    <t>IGD</t>
+  </si>
+  <si>
+    <t>Epsilon</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>Spread</t>
   </si>
   <si>
     <t>NSGA-II</t>
@@ -43,49 +67,49 @@
     <t>MOEA/D</t>
   </si>
   <si>
-    <t>1.0 (1.05)</t>
-  </si>
-  <si>
-    <t>1.06 (1.03)</t>
-  </si>
-  <si>
-    <t>1.06 (1.04)</t>
-  </si>
-  <si>
-    <t>1.83 (1.05)</t>
-  </si>
-  <si>
-    <t>1.86 (1.04)</t>
-  </si>
-  <si>
-    <t>1.89 (1.02)</t>
-  </si>
-  <si>
-    <t>2.95 (1.05)</t>
-  </si>
-  <si>
-    <t>2.91 (1.08)</t>
-  </si>
-  <si>
-    <t>2.96 (1.09)</t>
-  </si>
-  <si>
-    <t>3.95 (1.04)</t>
-  </si>
-  <si>
-    <t>3.96 (1.05)</t>
-  </si>
-  <si>
-    <t>3.97 (1.04)</t>
-  </si>
-  <si>
-    <t>4.67 (1.01)</t>
-  </si>
-  <si>
-    <t>4.71 (1.04)</t>
-  </si>
-  <si>
-    <t>4.65 (1.04)</t>
+    <t>[-0.12, 1.99, -0.18, 2.76, 1.46, -0.19, 0.38, 2.65, 2.03, -0.07]</t>
+  </si>
+  <si>
+    <t>[0.28, 1.24, -0.21, 2.65, 2.07, 0.24, 0.23, 2.47, 1.19, 0.66]</t>
+  </si>
+  <si>
+    <t>[0.31, 1.48, -0.27, 2.52, 1.87, 0.07, -0.26, 2.42, 1.57, 0.42]</t>
+  </si>
+  <si>
+    <t>[1.21, 2.78, 1.21, 1.2, 3.52, 3.22, 1.25, 1.29, 1.82, 0.46]</t>
+  </si>
+  <si>
+    <t>[1.22, 3.08, 1.19, 0.69, 2.66, 2.45, 0.87, 0.95, 1.9, 1.34]</t>
+  </si>
+  <si>
+    <t>[0.41, 3.49, 1.15, 0.75, 3.22, 2.61, 0.7, 0.74, 1.93, 0.93]</t>
+  </si>
+  <si>
+    <t>[4.17, 3.93, 2.3, 4.68, 4.11, 2.15, 1.37, 2.68, 3.71, 1.27]</t>
+  </si>
+  <si>
+    <t>[4.03, 3.88, 1.57, 4.33, 3.93, 2.28, 1.77, 2.57, 3.17, 1.34]</t>
+  </si>
+  <si>
+    <t>[3.58, 4.68, 2.14, 4.66, 3.84, 1.63, 1.18, 2.37, 3.9, 1.27]</t>
+  </si>
+  <si>
+    <t>[2.75, 3.31, 4.87, 3.66, 3.65, 4.78, 2.7, 3.42, 3.21, 5.17]</t>
+  </si>
+  <si>
+    <t>[2.83, 3.23, 4.94, 3.39, 3.18, 4.74, 3.27, 2.76, 3.5, 4.6]</t>
+  </si>
+  <si>
+    <t>[2.84, 3.65, 4.87, 3.23, 3.43, 4.51, 2.93, 3.27, 3.16, 4.89]</t>
+  </si>
+  <si>
+    <t>[3.54, 4.59, 5.58, 3.52, 5.62, 4.21, 4.18, 5.82, 4.57, 4.24]</t>
+  </si>
+  <si>
+    <t>[3.99, 3.7, 6.4, 3.48, 5.73, 3.86, 3.66, 5.45, 4.64, 4.3]</t>
+  </si>
+  <si>
+    <t>[4.33, 4.47, 5.96, 3.47, 5.61, 3.83, 3.74, 5.52, 4.05, 4.38]</t>
   </si>
 </sst>
 </file>
@@ -443,13 +467,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,74 +492,494 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>1.08</v>
+      </c>
+      <c r="F2">
+        <v>1.26</v>
+      </c>
+      <c r="G2">
+        <v>1.09</v>
+      </c>
+      <c r="H2">
+        <v>2.03</v>
+      </c>
+      <c r="I2">
+        <v>-0.82</v>
+      </c>
+      <c r="J2">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>1.09</v>
+      </c>
+      <c r="F3">
+        <v>1.26</v>
+      </c>
+      <c r="G3">
+        <v>1.04</v>
+      </c>
+      <c r="H3">
+        <v>1.73</v>
+      </c>
+      <c r="I3">
+        <v>-0.82</v>
+      </c>
+      <c r="J3">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>1.11</v>
+      </c>
+      <c r="F4">
+        <v>1.5</v>
+      </c>
+      <c r="G4">
+        <v>1.09</v>
+      </c>
+      <c r="H4">
+        <v>2.03</v>
+      </c>
+      <c r="I4">
+        <v>-0.85</v>
+      </c>
+      <c r="J4">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>1.93</v>
+      </c>
+      <c r="F5">
+        <v>1.83</v>
+      </c>
+      <c r="G5">
+        <v>1.07</v>
+      </c>
+      <c r="H5">
+        <v>1.85</v>
+      </c>
+      <c r="I5">
+        <v>0.21</v>
+      </c>
+      <c r="J5">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>1.99</v>
+      </c>
+      <c r="F6">
+        <v>1.71</v>
+      </c>
+      <c r="G6">
+        <v>1.08</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>0.24</v>
+      </c>
+      <c r="J6">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>1.99</v>
+      </c>
+      <c r="F7">
+        <v>1.78</v>
+      </c>
+      <c r="G7">
+        <v>1.08</v>
+      </c>
+      <c r="H7">
+        <v>1.98</v>
+      </c>
+      <c r="I7">
+        <v>0.27</v>
+      </c>
+      <c r="J7">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>2.93</v>
+      </c>
+      <c r="F8">
+        <v>2.64</v>
+      </c>
+      <c r="G8">
+        <v>1.06</v>
+      </c>
+      <c r="H8">
+        <v>1.89</v>
+      </c>
+      <c r="I8">
+        <v>1.24</v>
+      </c>
+      <c r="J8">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>2.96</v>
+      </c>
+      <c r="F9">
+        <v>2.54</v>
+      </c>
+      <c r="G9">
+        <v>1.06</v>
+      </c>
+      <c r="H9">
+        <v>1.99</v>
+      </c>
+      <c r="I9">
+        <v>1.22</v>
+      </c>
+      <c r="J9">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>2.9</v>
+      </c>
+      <c r="F10">
+        <v>2.64</v>
+      </c>
+      <c r="G10">
+        <v>1.07</v>
+      </c>
+      <c r="H10">
+        <v>1.93</v>
+      </c>
+      <c r="I10">
+        <v>1.11</v>
+      </c>
+      <c r="J10">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>4.07</v>
+      </c>
+      <c r="F11">
+        <v>4.3</v>
+      </c>
+      <c r="G11">
+        <v>1.06</v>
+      </c>
+      <c r="H11">
+        <v>1.93</v>
+      </c>
+      <c r="I11">
+        <v>2.07</v>
+      </c>
+      <c r="J11">
+        <v>5.84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>4.07</v>
+      </c>
+      <c r="F12">
+        <v>4.25</v>
+      </c>
+      <c r="G12">
+        <v>0.98</v>
+      </c>
+      <c r="H12">
+        <v>1.71</v>
+      </c>
+      <c r="I12">
+        <v>2.33</v>
+      </c>
+      <c r="J12">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13">
+        <v>4.05</v>
+      </c>
+      <c r="F13">
+        <v>4.25</v>
+      </c>
+      <c r="G13">
+        <v>0.95</v>
+      </c>
+      <c r="H13">
+        <v>1.7</v>
+      </c>
+      <c r="I13">
+        <v>2.3</v>
+      </c>
+      <c r="J13">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14">
+        <v>4.95</v>
+      </c>
+      <c r="F14">
+        <v>4.98</v>
+      </c>
+      <c r="G14">
+        <v>1.1</v>
+      </c>
+      <c r="H14">
+        <v>2.05</v>
+      </c>
+      <c r="I14">
+        <v>3.35</v>
+      </c>
+      <c r="J14">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15">
+        <v>4.99</v>
+      </c>
+      <c r="F15">
+        <v>5.13</v>
+      </c>
+      <c r="G15">
+        <v>1.1</v>
+      </c>
+      <c r="H15">
+        <v>1.98</v>
+      </c>
+      <c r="I15">
+        <v>3.24</v>
+      </c>
+      <c r="J15">
+        <v>6.92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16">
+        <v>4.9</v>
+      </c>
+      <c r="F16">
+        <v>4.94</v>
+      </c>
+      <c r="G16">
+        <v>1.1</v>
+      </c>
+      <c r="H16">
+        <v>2.09</v>
+      </c>
+      <c r="I16">
+        <v>3.14</v>
+      </c>
+      <c r="J16">
+        <v>6.71</v>
       </c>
     </row>
   </sheetData>

--- a/example/colalab_plot_examples/example.xlsx
+++ b/example/colalab_plot_examples/example.xlsx
@@ -67,49 +67,49 @@
     <t>MOEA/D</t>
   </si>
   <si>
-    <t>[-0.12, 1.99, -0.18, 2.76, 1.46, -0.19, 0.38, 2.65, 2.03, -0.07]</t>
-  </si>
-  <si>
-    <t>[0.28, 1.24, -0.21, 2.65, 2.07, 0.24, 0.23, 2.47, 1.19, 0.66]</t>
-  </si>
-  <si>
-    <t>[0.31, 1.48, -0.27, 2.52, 1.87, 0.07, -0.26, 2.42, 1.57, 0.42]</t>
-  </si>
-  <si>
-    <t>[1.21, 2.78, 1.21, 1.2, 3.52, 3.22, 1.25, 1.29, 1.82, 0.46]</t>
-  </si>
-  <si>
-    <t>[1.22, 3.08, 1.19, 0.69, 2.66, 2.45, 0.87, 0.95, 1.9, 1.34]</t>
-  </si>
-  <si>
-    <t>[0.41, 3.49, 1.15, 0.75, 3.22, 2.61, 0.7, 0.74, 1.93, 0.93]</t>
-  </si>
-  <si>
-    <t>[4.17, 3.93, 2.3, 4.68, 4.11, 2.15, 1.37, 2.68, 3.71, 1.27]</t>
-  </si>
-  <si>
-    <t>[4.03, 3.88, 1.57, 4.33, 3.93, 2.28, 1.77, 2.57, 3.17, 1.34]</t>
-  </si>
-  <si>
-    <t>[3.58, 4.68, 2.14, 4.66, 3.84, 1.63, 1.18, 2.37, 3.9, 1.27]</t>
-  </si>
-  <si>
-    <t>[2.75, 3.31, 4.87, 3.66, 3.65, 4.78, 2.7, 3.42, 3.21, 5.17]</t>
-  </si>
-  <si>
-    <t>[2.83, 3.23, 4.94, 3.39, 3.18, 4.74, 3.27, 2.76, 3.5, 4.6]</t>
-  </si>
-  <si>
-    <t>[2.84, 3.65, 4.87, 3.23, 3.43, 4.51, 2.93, 3.27, 3.16, 4.89]</t>
-  </si>
-  <si>
-    <t>[3.54, 4.59, 5.58, 3.52, 5.62, 4.21, 4.18, 5.82, 4.57, 4.24]</t>
-  </si>
-  <si>
-    <t>[3.99, 3.7, 6.4, 3.48, 5.73, 3.86, 3.66, 5.45, 4.64, 4.3]</t>
-  </si>
-  <si>
-    <t>[4.33, 4.47, 5.96, 3.47, 5.61, 3.83, 3.74, 5.52, 4.05, 4.38]</t>
+    <t>[2.23, 0.3, 2.2, -0.74, 1.92, -0.08, 2.26, -0.58, 1.86, 0.26]</t>
+  </si>
+  <si>
+    <t>[2.43, 0.43, 2.85, -0.29, 1.76, -0.34, 2.31, -0.13, 2.05, 0.78]</t>
+  </si>
+  <si>
+    <t>[2.4, 0.09, 1.91, -0.7, 1.93, -0.22, 2.22, -0.53, 2.46, 0.15]</t>
+  </si>
+  <si>
+    <t>[3.18, 0.79, 2.66, 1.2, 3.27, 2.29, 3.37, 1.16, 2.9, 1.15]</t>
+  </si>
+  <si>
+    <t>[3.06, 1.27, 2.76, 1.21, 3.15, 2.53, 2.93, 1.43, 2.99, 1.06]</t>
+  </si>
+  <si>
+    <t>[3.5, 1.03, 2.92, 0.88, 3.13, 3.02, 3.68, 1.55, 2.31, 0.99]</t>
+  </si>
+  <si>
+    <t>[1.78, 2.47, 1.75, 2.0, 2.3, 4.18, 1.5, 3.3, 2.1, 3.78]</t>
+  </si>
+  <si>
+    <t>[2.0, 2.0, 1.75, 1.63, 1.91, 4.53, 1.35, 3.69, 1.98, 3.18]</t>
+  </si>
+  <si>
+    <t>[2.3, 1.92, 2.37, 1.91, 2.19, 3.68, 2.03, 3.2, 1.98, 3.92]</t>
+  </si>
+  <si>
+    <t>[2.68, 5.71, 2.97, 5.43, 4.83, 5.48, 3.25, 4.38, 4.39, 3.49]</t>
+  </si>
+  <si>
+    <t>[2.76, 5.15, 3.35, 5.86, 4.64, 4.57, 2.88, 4.55, 4.35, 2.92]</t>
+  </si>
+  <si>
+    <t>[3.53, 5.62, 3.07, 5.66, 4.72, 4.63, 3.2, 4.15, 4.7, 3.12]</t>
+  </si>
+  <si>
+    <t>[6.06, 3.64, 6.66, 5.78, 5.99, 5.35, 4.33, 3.62, 3.98, 4.06]</t>
+  </si>
+  <si>
+    <t>[5.89, 3.94, 6.63, 5.63, 6.34, 5.73, 4.47, 3.74, 4.0, 4.28]</t>
+  </si>
+  <si>
+    <t>[5.78, 3.48, 6.5, 5.05, 6.11, 5.61, 4.29, 3.35, 4.12, 4.06]</t>
   </si>
 </sst>
 </file>
@@ -516,22 +516,22 @@
         <v>17</v>
       </c>
       <c r="E2">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="F2">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="G2">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="H2">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="I2">
-        <v>-0.82</v>
+        <v>-0.89</v>
       </c>
       <c r="J2">
-        <v>2.77</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -548,22 +548,22 @@
         <v>18</v>
       </c>
       <c r="E3">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="F3">
-        <v>1.26</v>
+        <v>1.49</v>
       </c>
       <c r="G3">
-        <v>1.04</v>
+        <v>1.15</v>
       </c>
       <c r="H3">
-        <v>1.73</v>
+        <v>2.13</v>
       </c>
       <c r="I3">
-        <v>-0.82</v>
+        <v>-0.88</v>
       </c>
       <c r="J3">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -580,22 +580,22 @@
         <v>19</v>
       </c>
       <c r="E4">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="F4">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="G4">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="H4">
-        <v>2.03</v>
+        <v>2.17</v>
       </c>
       <c r="I4">
-        <v>-0.85</v>
+        <v>-0.91</v>
       </c>
       <c r="J4">
-        <v>2.85</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -612,22 +612,22 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="F5">
-        <v>1.83</v>
+        <v>2.38</v>
       </c>
       <c r="G5">
         <v>1.07</v>
       </c>
       <c r="H5">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="J5">
-        <v>3.82</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -644,22 +644,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1.99</v>
+        <v>2.07</v>
       </c>
       <c r="F6">
-        <v>1.71</v>
+        <v>2.39</v>
       </c>
       <c r="G6">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="I6">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="J6">
-        <v>3.78</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -676,22 +676,22 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="F7">
-        <v>1.78</v>
+        <v>2.17</v>
       </c>
       <c r="G7">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="H7">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="I7">
-        <v>0.27</v>
+        <v>0.19</v>
       </c>
       <c r="J7">
-        <v>3.92</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -708,22 +708,22 @@
         <v>23</v>
       </c>
       <c r="E8">
-        <v>2.93</v>
+        <v>3.13</v>
       </c>
       <c r="F8">
-        <v>2.64</v>
+        <v>3.3</v>
       </c>
       <c r="G8">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="H8">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="I8">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="J8">
-        <v>4.8</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -740,22 +740,22 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>2.96</v>
+        <v>3.09</v>
       </c>
       <c r="F9">
-        <v>2.54</v>
+        <v>3.21</v>
       </c>
       <c r="G9">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="H9">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>1.22</v>
+        <v>1.08</v>
       </c>
       <c r="J9">
-        <v>4.91</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -772,22 +772,22 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="F10">
-        <v>2.64</v>
+        <v>3.39</v>
       </c>
       <c r="G10">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="H10">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="I10">
-        <v>1.11</v>
+        <v>1.38</v>
       </c>
       <c r="J10">
-        <v>4.87</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -804,22 +804,22 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>4.07</v>
+        <v>4.01</v>
       </c>
       <c r="F11">
-        <v>4.3</v>
+        <v>4.32</v>
       </c>
       <c r="G11">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="H11">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="I11">
-        <v>2.07</v>
+        <v>2.09</v>
       </c>
       <c r="J11">
-        <v>5.84</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -836,22 +836,22 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>4.07</v>
+        <v>4.03</v>
       </c>
       <c r="F12">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="G12">
-        <v>0.98</v>
+        <v>1.05</v>
       </c>
       <c r="H12">
-        <v>1.71</v>
+        <v>1.85</v>
       </c>
       <c r="I12">
-        <v>2.33</v>
+        <v>2.13</v>
       </c>
       <c r="J12">
-        <v>5.9</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -871,19 +871,19 @@
         <v>4.05</v>
       </c>
       <c r="F13">
-        <v>4.25</v>
+        <v>4.16</v>
       </c>
       <c r="G13">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="H13">
-        <v>1.7</v>
+        <v>1.94</v>
       </c>
       <c r="I13">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="J13">
-        <v>5.83</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -900,22 +900,22 @@
         <v>29</v>
       </c>
       <c r="E14">
-        <v>4.95</v>
+        <v>5.06</v>
       </c>
       <c r="F14">
-        <v>4.98</v>
+        <v>5.07</v>
       </c>
       <c r="G14">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="H14">
         <v>2.05</v>
       </c>
       <c r="I14">
-        <v>3.35</v>
+        <v>3.34</v>
       </c>
       <c r="J14">
-        <v>6.8</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -932,22 +932,22 @@
         <v>30</v>
       </c>
       <c r="E15">
-        <v>4.99</v>
+        <v>5.04</v>
       </c>
       <c r="F15">
-        <v>5.13</v>
+        <v>5.1</v>
       </c>
       <c r="G15">
-        <v>1.1</v>
+        <v>0.99</v>
       </c>
       <c r="H15">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="I15">
-        <v>3.24</v>
+        <v>3.33</v>
       </c>
       <c r="J15">
-        <v>6.92</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -964,22 +964,22 @@
         <v>31</v>
       </c>
       <c r="E16">
-        <v>4.9</v>
+        <v>4.98</v>
       </c>
       <c r="F16">
-        <v>4.94</v>
+        <v>4.99</v>
       </c>
       <c r="G16">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="H16">
-        <v>2.09</v>
+        <v>1.87</v>
       </c>
       <c r="I16">
-        <v>3.14</v>
+        <v>3.04</v>
       </c>
       <c r="J16">
-        <v>6.71</v>
+        <v>6.74</v>
       </c>
     </row>
   </sheetData>

--- a/example/colalab_plot_examples/example.xlsx
+++ b/example/colalab_plot_examples/example.xlsx
@@ -67,49 +67,49 @@
     <t>MOEA/D</t>
   </si>
   <si>
-    <t>[0.3766790080688286, 0.024246911742625832, 0.57916283190051, 0.30767666647580694, 0.14763358739751475, 0.24457488699703478, 2.36319910374627, 2.5355130345943153, 0.007733202995220623, -0.3555044169871161]</t>
-  </si>
-  <si>
-    <t>[-0.4554230503887168, -0.09915825629793895, -0.03828640805975381, 0.6409445388449334, 0.09856240226655344, 0.23751580314380194, 2.1454741891101015, 2.1522229699544284, -0.38658543535229895, -0.30593735391120425]</t>
-  </si>
-  <si>
-    <t>[-0.102748906362783, 0.5358263604784168, 0.030334501450122175, 0.26562762032123355, -0.29206999022823377, -0.0426368904647807, 2.578089833178197, 2.2476260818158735, 0.1397593984889297, -0.24128336593366762]</t>
-  </si>
-  <si>
-    <t>[3.5269976401187084, 3.6393121431437847, 0.43287482396363486, 3.4334791271551093, 3.3123840970769898, 1.0966518019041702, 2.872508243745455, 1.558471805499005, 2.8181363112670272, 2.858262213022587]</t>
-  </si>
-  <si>
-    <t>[3.121595500924559, 3.636079872810608, 1.1307716891310005, 3.2042417449831566, 3.0640991638220427, 1.4543825405387518, 3.3327786618961115, 1.603931842893263, 2.8898221576014924, 3.2554054282681433]</t>
-  </si>
-  <si>
-    <t>[2.9550249779968043, 2.7652765114262228, 0.7095149301475536, 3.7900825402139406, 2.7873496581971957, 1.3856654112062632, 3.548002078109206, 1.7996443816592826, 2.816310234418796, 3.1516922960905855]</t>
-  </si>
-  <si>
-    <t>[3.5319708253510207, 4.697839480130295, 4.25978742253718, 4.52492470886123, 2.6383904288133544, 3.9198279888800593, 1.8688558816128418, 4.372682635417293, 4.13172258982489, 1.6667511592535535]</t>
-  </si>
-  <si>
-    <t>[3.1875223640274664, 4.551871602096928, 3.91107138013172, 3.827397411962339, 2.6938817183946604, 3.8518038708896887, 1.7115450851934226, 3.956246588183973, 3.9789292028909973, 1.2061664639915288]</t>
-  </si>
-  <si>
-    <t>[3.7643860884928597, 4.651156987239278, 4.57037351749406, 4.716111086033459, 2.134671756569795, 4.223120709990186, 2.328248822803745, 4.463994966073596, 4.03905622952757, 1.05461256517553]</t>
-  </si>
-  <si>
-    <t>[3.3600782191241363, 5.151851156658329, 5.027237576455017, 5.52813774352852, 2.9630816008717167, 4.659308176961359, 4.8302741038963655, 4.494242713530542, 4.510466235461567, 4.980248096485889]</t>
-  </si>
-  <si>
-    <t>[3.760819752117259, 5.656022115749607, 5.103942534534418, 5.431896151495687, 3.873247712031559, 5.430252751336445, 5.370814270676125, 4.633984565311264, 5.148050452576672, 5.690748668886103]</t>
-  </si>
-  <si>
-    <t>[3.085929569287999, 4.975357789326619, 5.2191801928955055, 5.779909244385786, 3.548872794525485, 5.0862922411636795, 4.768705997758777, 4.879422803564953, 4.463997048674578, 5.7866698833753]</t>
-  </si>
-  <si>
-    <t>[3.5972351459942633, 3.636502687466658, 3.8331870752989294, 3.8862564860806676, 3.2618054305093933, 6.21098478731447, 6.296218982605869, 5.812898283746136, 6.7304873624013375, 3.7744585191204973]</t>
-  </si>
-  <si>
-    <t>[3.2718928786361343, 4.05988250376104, 3.995271916004396, 4.457819434982126, 3.6385569995013536, 6.828750095406388, 5.723971643267779, 6.3295733196277535, 5.929225845384156, 3.8368743488879957]</t>
-  </si>
-  <si>
-    <t>[3.645481313188641, 3.8728986889110684, 3.6877837598846237, 4.681915283788577, 3.3389327256511443, 6.653400191689204, 6.152785825525603, 6.042734655601167, 6.011129639113375, 4.003307211463973]</t>
+    <t>[2.208274434505512, 0.00697128189916596, 2.1583801458841205, 2.0147030580391068, 0.7207174758789596, 2.252198798509313, -0.28704269045942254, 0.24604423641618145, -0.3745273425939758, -0.007607072384065994]</t>
+  </si>
+  <si>
+    <t>[2.1001567163059605, 0.44379421596228064, 1.7145119857943372, 2.498581861325498, 0.16397958636983423, 1.7472837221581523, -0.6632799919407352, 0.5416869308106482, 0.5321915626183688, -0.10633647011954572]</t>
+  </si>
+  <si>
+    <t>[2.4277990977398174, 0.5996877068574158, 1.6339022349063659, 1.6132808171603776, 0.13279867960393654, 1.463729273641144, 0.03872655053829932, 0.7065727812642748, -0.26894739547926505, -0.2832125958048396]</t>
+  </si>
+  <si>
+    <t>[0.4678163475876159, 2.9674760525082258, 1.209342362371529, 2.331899095909311, 0.7916864137350307, 0.34993370468558505, 1.3771831378326733, 3.175932108301922, 2.906876484813991, 0.9998475785877406]</t>
+  </si>
+  <si>
+    <t>[0.6595448942300263, 3.1030818232383015, 1.9152598534707994, 2.6830365156937024, 0.6881962892772483, 0.9502366667354383, 0.827341186454775, 2.905709029777081, 2.543916390425573, 0.9509953203331467]</t>
+  </si>
+  <si>
+    <t>[0.3094702110369568, 2.298230309344385, 1.324781734842634, 2.393569512148407, 1.269111648648181, 0.4112202672691522, 1.4893791992459509, 3.228999854843396, 2.9538837066012715, 1.2347782904348557]</t>
+  </si>
+  <si>
+    <t>[4.025855898337227, 2.197485567148932, 3.937915488277627, 2.383601534096924, 1.365495920531084, 1.6488015081885368, 1.6468071345448432, 3.6717456557774515, 2.4365976274248227, 3.6949032147867347]</t>
+  </si>
+  <si>
+    <t>[4.74595938764902, 1.5967599571676732, 3.7672854738039705, 2.405339913826939, 2.082064037818448, 1.8360780278615985, 1.8481206951790743, 3.747586213154218, 2.0806440067581073, 3.202374353527075]</t>
+  </si>
+  <si>
+    <t>[3.8789635754440988, 2.1542575637807335, 4.09936713529258, 2.140973492834956, 1.8201785192367674, 1.5213551226422624, 1.8651237294866587, 4.137379352209184, 2.0872923537071006, 3.349434638330921]</t>
+  </si>
+  <si>
+    <t>[5.235781769998009, 3.447273941592302, 5.218835135007532, 3.310710809545366, 5.61966212875307, 4.382670620462003, 5.646438423664974, 4.737442778522498, 2.819143940252072, 5.534536875035144]</t>
+  </si>
+  <si>
+    <t>[5.672852078131392, 3.1134236390253065, 4.622609232976708, 3.472904142440762, 5.049291110521917, 4.1470824664068395, 4.860735566234766, 5.048712910050991, 3.097569667738906, 4.927463113078542]</t>
+  </si>
+  <si>
+    <t>[5.28679109701034, 3.0982627258641773, 4.770672103502978, 3.1258997010006637, 5.937008265329732, 4.864254458727849, 5.010762478529797, 4.7982952236442316, 2.769770545297673, 5.305408625149553]</t>
+  </si>
+  <si>
+    <t>[4.375233270065066, 4.158527210583873, 3.8298365271244017, 4.4512401912924275, 5.516144300352076, 6.339770510526364, 5.915094260274134, 5.953718215835974, 6.156746699015036, 5.268364979953535]</t>
+  </si>
+  <si>
+    <t>[3.932846778867356, 4.144788866173391, 3.638468477860589, 4.262275189141432, 5.825707231889922, 6.621636786480359, 5.728291586165419, 6.389397468382731, 5.850938807208933, 5.337042712430131]</t>
+  </si>
+  <si>
+    <t>[4.58942909874915, 3.841470103389675, 3.685678032487356, 4.702895718537819, 5.854313150475248, 5.897756901090749, 6.194367048808498, 6.271478387889243, 5.751861060010265, 5.993093502898981]</t>
   </si>
 </sst>
 </file>
@@ -516,22 +516,22 @@
         <v>17</v>
       </c>
       <c r="E2">
-        <v>1.011092357555294</v>
+        <v>0.8908337496089529</v>
       </c>
       <c r="F2">
-        <v>0.7207659355408518</v>
+        <v>0.7154303165457025</v>
       </c>
       <c r="G2">
-        <v>1.03900546187824</v>
+        <v>1.09066678519939</v>
       </c>
       <c r="H2">
-        <v>1.925562680557236</v>
+        <v>2.047861004845454</v>
       </c>
       <c r="I2">
-        <v>-0.677763582708382</v>
+        <v>-0.944248245081363</v>
       </c>
       <c r="J2">
-        <v>2.711824131445845</v>
+        <v>2.874408137403387</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -548,22 +548,22 @@
         <v>18</v>
       </c>
       <c r="E3">
-        <v>0.9708710071606411</v>
+        <v>0.90179011762707</v>
       </c>
       <c r="F3">
-        <v>0.6592873422567879</v>
+        <v>0.5005969082626693</v>
       </c>
       <c r="G3">
-        <v>1.033353947805987</v>
+        <v>1.086551619768378</v>
       </c>
       <c r="H3">
-        <v>1.919811518855325</v>
+        <v>1.993528693247617</v>
       </c>
       <c r="I3">
-        <v>-0.8277082998121352</v>
+        <v>-0.7995345781134289</v>
       </c>
       <c r="J3">
-        <v>2.774308791886025</v>
+        <v>2.893860452043841</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -580,22 +580,22 @@
         <v>19</v>
       </c>
       <c r="E4">
-        <v>0.9342130053487517</v>
+        <v>0.877709631893714</v>
       </c>
       <c r="F4">
-        <v>0.7791469176102621</v>
+        <v>0.6531302440608453</v>
       </c>
       <c r="G4">
-        <v>1.040182562644035</v>
+        <v>1.040841377264883</v>
       </c>
       <c r="H4">
-        <v>1.890626321641633</v>
+        <v>1.884145612920133</v>
       </c>
       <c r="I4">
-        <v>-0.7902502463896116</v>
+        <v>-0.8799225051804003</v>
       </c>
       <c r="J4">
-        <v>2.922554460537575</v>
+        <v>2.693851173667157</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -612,22 +612,22 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1.989280921727519</v>
+        <v>1.906213608443921</v>
       </c>
       <c r="F5">
-        <v>2.229228229984436</v>
+        <v>1.664731501237072</v>
       </c>
       <c r="G5">
-        <v>1.054363216400049</v>
+        <v>1.112517714054654</v>
       </c>
       <c r="H5">
-        <v>1.820597847768761</v>
+        <v>2.078383652226492</v>
       </c>
       <c r="I5">
-        <v>0.2518631129567147</v>
+        <v>0.1489215348824766</v>
       </c>
       <c r="J5">
-        <v>3.85654079098305</v>
+        <v>3.848907056862027</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -644,22 +644,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2.021462500708842</v>
+        <v>1.962603070871779</v>
       </c>
       <c r="F6">
-        <v>2.293992554582977</v>
+        <v>1.820559503498228</v>
       </c>
       <c r="G6">
-        <v>1.072363431478423</v>
+        <v>1.031926580287638</v>
       </c>
       <c r="H6">
-        <v>1.908202475190187</v>
+        <v>1.938982230331623</v>
       </c>
       <c r="I6">
-        <v>0.1588653504217827</v>
+        <v>0.2174422855658378</v>
       </c>
       <c r="J6">
-        <v>3.867074452154506</v>
+        <v>3.883420236470926</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -676,22 +676,22 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>2.017966392220889</v>
+        <v>1.937030132042761</v>
       </c>
       <c r="F7">
-        <v>2.164044820511722</v>
+        <v>1.792491024812481</v>
       </c>
       <c r="G7">
-        <v>1.075683158047794</v>
+        <v>1.048419990580402</v>
       </c>
       <c r="H7">
-        <v>2.007969958377402</v>
+        <v>1.989563517465973</v>
       </c>
       <c r="I7">
-        <v>0.1889818696864759</v>
+        <v>0.1314435630066434</v>
       </c>
       <c r="J7">
-        <v>3.790082540213941</v>
+        <v>3.685356516309492</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -708,22 +708,22 @@
         <v>23</v>
       </c>
       <c r="E8">
-        <v>3.197743309225999</v>
+        <v>2.848825125048192</v>
       </c>
       <c r="F8">
-        <v>3.508221506897877</v>
+        <v>2.410099580760873</v>
       </c>
       <c r="G8">
-        <v>1.043042046364915</v>
+        <v>1.086394271830024</v>
       </c>
       <c r="H8">
-        <v>1.966882564317946</v>
+        <v>2.03850569170433</v>
       </c>
       <c r="I8">
-        <v>1.240566128077178</v>
+        <v>1.223996408205072</v>
       </c>
       <c r="J8">
-        <v>4.792662256661227</v>
+        <v>4.834399046944536</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -740,22 +740,22 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>3.157329118818814</v>
+        <v>2.812505587637666</v>
       </c>
       <c r="F9">
-        <v>3.471032061377669</v>
+        <v>2.391797045598767</v>
       </c>
       <c r="G9">
-        <v>1.055206912544946</v>
+        <v>1.120716357972687</v>
       </c>
       <c r="H9">
-        <v>1.846697909778889</v>
+        <v>1.984353567372285</v>
       </c>
       <c r="I9">
-        <v>1.081657729612039</v>
+        <v>1.197153401456493</v>
       </c>
       <c r="J9">
-        <v>4.772709580506926</v>
+        <v>4.922281866129098</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -772,22 +772,22 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>3.203777423555351</v>
+        <v>2.829104506810397</v>
       </c>
       <c r="F10">
-        <v>3.586660355747192</v>
+        <v>2.439971475111707</v>
       </c>
       <c r="G10">
-        <v>1.094410464938031</v>
+        <v>1.050122979278302</v>
       </c>
       <c r="H10">
-        <v>2.077575922394125</v>
+        <v>1.990826816346215</v>
       </c>
       <c r="I10">
-        <v>1.05461256517553</v>
+        <v>1.333471041153242</v>
       </c>
       <c r="J10">
-        <v>4.716111086033459</v>
+        <v>4.951212908644681</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -804,22 +804,22 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>4.076839615739224</v>
+        <v>4.023179414448156</v>
       </c>
       <c r="F11">
-        <v>4.369326584395047</v>
+        <v>4.306507874989705</v>
       </c>
       <c r="G11">
-        <v>1.124998654443218</v>
+        <v>1.070775654394388</v>
       </c>
       <c r="H11">
-        <v>2.137016943447305</v>
+        <v>2.004687449382626</v>
       </c>
       <c r="I11">
-        <v>2.062345246814597</v>
+        <v>2.226744883851491</v>
       </c>
       <c r="J11">
-        <v>5.905617426587661</v>
+        <v>5.829659672493209</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -836,22 +836,22 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>4.109476514952653</v>
+        <v>4.023214059844467</v>
       </c>
       <c r="F12">
-        <v>4.614584526023594</v>
+        <v>4.21769010426851</v>
       </c>
       <c r="G12">
-        <v>1.094873922686671</v>
+        <v>1.103644046068668</v>
       </c>
       <c r="H12">
-        <v>2.02268440744192</v>
+        <v>2.027007232663032</v>
       </c>
       <c r="I12">
-        <v>2.231043493072771</v>
+        <v>2.11805041621194</v>
       </c>
       <c r="J12">
-        <v>5.690748668886103</v>
+        <v>5.764589377220197</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -868,22 +868,22 @@
         <v>28</v>
       </c>
       <c r="E13">
-        <v>4.052995060598051</v>
+        <v>4.079973270392466</v>
       </c>
       <c r="F13">
-        <v>4.471195081692369</v>
+        <v>4.390017938194811</v>
       </c>
       <c r="G13">
-        <v>1.060997554125354</v>
+        <v>1.095334670781786</v>
       </c>
       <c r="H13">
-        <v>1.975424704206998</v>
+        <v>2.059789711757856</v>
       </c>
       <c r="I13">
-        <v>2.234828106231679</v>
+        <v>2.166066939736118</v>
       </c>
       <c r="J13">
-        <v>5.876820458641149</v>
+        <v>5.937008265329732</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -900,22 +900,22 @@
         <v>29</v>
       </c>
       <c r="E14">
-        <v>4.939808128340983</v>
+        <v>4.928521472988778</v>
       </c>
       <c r="F14">
-        <v>4.519981298478552</v>
+        <v>4.666809643279249</v>
       </c>
       <c r="G14">
-        <v>1.118539571362068</v>
+        <v>1.08782383315557</v>
       </c>
       <c r="H14">
-        <v>2.157107279347862</v>
+        <v>1.941829382424491</v>
       </c>
       <c r="I14">
-        <v>3.254584788890845</v>
+        <v>3.136644107341265</v>
       </c>
       <c r="J14">
-        <v>6.956099796158558</v>
+        <v>6.82715303870811</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -932,22 +932,22 @@
         <v>30</v>
       </c>
       <c r="E15">
-        <v>4.937271016749577</v>
+        <v>4.905934975834543</v>
       </c>
       <c r="F15">
-        <v>4.549785442276656</v>
+        <v>4.432250283286177</v>
       </c>
       <c r="G15">
-        <v>1.124636092594624</v>
+        <v>1.073840109222765</v>
       </c>
       <c r="H15">
-        <v>2.168409161622493</v>
+        <v>1.850709125990769</v>
       </c>
       <c r="I15">
-        <v>3.160497717136</v>
+        <v>3.048415070885462</v>
       </c>
       <c r="J15">
-        <v>6.828750095406388</v>
+        <v>6.800194694209575</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -964,22 +964,22 @@
         <v>31</v>
       </c>
       <c r="E16">
-        <v>4.905720631420923</v>
+        <v>4.959211196927857</v>
       </c>
       <c r="F16">
-        <v>4.571560919393885</v>
+        <v>4.600369611003645</v>
       </c>
       <c r="G16">
-        <v>1.071891404318621</v>
+        <v>1.126960545054214</v>
       </c>
       <c r="H16">
-        <v>2.062684745317656</v>
+        <v>2.102791720307566</v>
       </c>
       <c r="I16">
-        <v>3.338932725651144</v>
+        <v>3.086548504991888</v>
       </c>
       <c r="J16">
-        <v>6.683744917477025</v>
+        <v>6.96337052856588</v>
       </c>
     </row>
   </sheetData>

--- a/example/colalab_plot_examples/example.xlsx
+++ b/example/colalab_plot_examples/example.xlsx
@@ -67,49 +67,49 @@
     <t>MOEA/D</t>
   </si>
   <si>
-    <t>[2.208274434505512, 0.00697128189916596, 2.1583801458841205, 2.0147030580391068, 0.7207174758789596, 2.252198798509313, -0.28704269045942254, 0.24604423641618145, -0.3745273425939758, -0.007607072384065994]</t>
-  </si>
-  <si>
-    <t>[2.1001567163059605, 0.44379421596228064, 1.7145119857943372, 2.498581861325498, 0.16397958636983423, 1.7472837221581523, -0.6632799919407352, 0.5416869308106482, 0.5321915626183688, -0.10633647011954572]</t>
-  </si>
-  <si>
-    <t>[2.4277990977398174, 0.5996877068574158, 1.6339022349063659, 1.6132808171603776, 0.13279867960393654, 1.463729273641144, 0.03872655053829932, 0.7065727812642748, -0.26894739547926505, -0.2832125958048396]</t>
-  </si>
-  <si>
-    <t>[0.4678163475876159, 2.9674760525082258, 1.209342362371529, 2.331899095909311, 0.7916864137350307, 0.34993370468558505, 1.3771831378326733, 3.175932108301922, 2.906876484813991, 0.9998475785877406]</t>
-  </si>
-  <si>
-    <t>[0.6595448942300263, 3.1030818232383015, 1.9152598534707994, 2.6830365156937024, 0.6881962892772483, 0.9502366667354383, 0.827341186454775, 2.905709029777081, 2.543916390425573, 0.9509953203331467]</t>
-  </si>
-  <si>
-    <t>[0.3094702110369568, 2.298230309344385, 1.324781734842634, 2.393569512148407, 1.269111648648181, 0.4112202672691522, 1.4893791992459509, 3.228999854843396, 2.9538837066012715, 1.2347782904348557]</t>
-  </si>
-  <si>
-    <t>[4.025855898337227, 2.197485567148932, 3.937915488277627, 2.383601534096924, 1.365495920531084, 1.6488015081885368, 1.6468071345448432, 3.6717456557774515, 2.4365976274248227, 3.6949032147867347]</t>
-  </si>
-  <si>
-    <t>[4.74595938764902, 1.5967599571676732, 3.7672854738039705, 2.405339913826939, 2.082064037818448, 1.8360780278615985, 1.8481206951790743, 3.747586213154218, 2.0806440067581073, 3.202374353527075]</t>
-  </si>
-  <si>
-    <t>[3.8789635754440988, 2.1542575637807335, 4.09936713529258, 2.140973492834956, 1.8201785192367674, 1.5213551226422624, 1.8651237294866587, 4.137379352209184, 2.0872923537071006, 3.349434638330921]</t>
-  </si>
-  <si>
-    <t>[5.235781769998009, 3.447273941592302, 5.218835135007532, 3.310710809545366, 5.61966212875307, 4.382670620462003, 5.646438423664974, 4.737442778522498, 2.819143940252072, 5.534536875035144]</t>
-  </si>
-  <si>
-    <t>[5.672852078131392, 3.1134236390253065, 4.622609232976708, 3.472904142440762, 5.049291110521917, 4.1470824664068395, 4.860735566234766, 5.048712910050991, 3.097569667738906, 4.927463113078542]</t>
-  </si>
-  <si>
-    <t>[5.28679109701034, 3.0982627258641773, 4.770672103502978, 3.1258997010006637, 5.937008265329732, 4.864254458727849, 5.010762478529797, 4.7982952236442316, 2.769770545297673, 5.305408625149553]</t>
-  </si>
-  <si>
-    <t>[4.375233270065066, 4.158527210583873, 3.8298365271244017, 4.4512401912924275, 5.516144300352076, 6.339770510526364, 5.915094260274134, 5.953718215835974, 6.156746699015036, 5.268364979953535]</t>
-  </si>
-  <si>
-    <t>[3.932846778867356, 4.144788866173391, 3.638468477860589, 4.262275189141432, 5.825707231889922, 6.621636786480359, 5.728291586165419, 6.389397468382731, 5.850938807208933, 5.337042712430131]</t>
-  </si>
-  <si>
-    <t>[4.58942909874915, 3.841470103389675, 3.685678032487356, 4.702895718537819, 5.854313150475248, 5.897756901090749, 6.194367048808498, 6.271478387889243, 5.751861060010265, 5.993093502898981]</t>
+    <t>[2.177061794283399, 1.1970776412099466, -0.4374233181427629, -0.729542524598622, 2.3373308473992602, -0.13930949649290136, 1.733028103973484, 1.8235486777279735, -0.08199064339981532, -0.3225948931467023]</t>
+  </si>
+  <si>
+    <t>[2.3167954209329564, 2.011382939383966, -0.07615874557181257, -0.08065382577072566, 1.9214032679435715, 0.8138907237718782, 1.503606258390215, 2.5399320179183302, 0.3177999058614962, -0.3679646179871787]</t>
+  </si>
+  <si>
+    <t>[1.5312044600721757, 1.3942369576608264, -0.03516538392773216, -0.20364394971728683, 2.4881711696322313, 0.4822072543413264, 1.6908755214799391, 2.55744091600067, -0.13205904722763517, 0.095301303830854]</t>
+  </si>
+  <si>
+    <t>[0.5648386138333287, 1.1009915999293076, 2.874749793445191, 1.1925406197194264, 3.4688576439752667, 2.479675098108967, 3.3582856548546545, 1.4814631294840832, 3.3302676151250448, 3.002925192965205]</t>
+  </si>
+  <si>
+    <t>[1.3183963955124418, 0.4531368027774403, 2.6471549193896413, 1.095791724424001, 2.7434790251136665, 2.823101699081785, 3.4717199011216713, 1.3292695248932171, 2.701031681782659, 3.2446853326768763]</t>
+  </si>
+  <si>
+    <t>[0.6457772999892609, 0.8612157605660801, 3.250535515924568, 0.8301569969982259, 3.1827158277003935, 2.9796712566749304, 3.6969224043949565, 1.4961698717081446, 3.091261089457555, 3.1897649937652646]</t>
+  </si>
+  <si>
+    <t>[1.9986443986961377, 1.8667927871572647, 3.997198120971534, 2.397180707543088, 3.981594902751877, 2.564016496642274, 2.2772181464798606, 2.3556534257653627, 2.0240551541794094, 4.455131375572931]</t>
+  </si>
+  <si>
+    <t>[2.0535932384756665, 1.3635696423021209, 3.8257521276864255, 1.5918729306741546, 3.903482541233565, 2.732892147263701, 2.2326925338136996, 2.0142621733931474, 1.3271604865851172, 4.353495976983261]</t>
+  </si>
+  <si>
+    <t>[1.5426060771056167, 1.5605294589701317, 3.9092496969825152, 2.2593457442413354, 4.575471421791233, 2.7629848909042636, 1.9897114522808934, 1.8581535710609565, 1.6368823159980712, 4.568582483515211]</t>
+  </si>
+  <si>
+    <t>[2.3455240226421576, 5.223149823175894, 3.0276178119695767, 2.4109215877866603, 5.103801058386042, 2.1967649444514965, 3.1072729733172313, 5.2793735187420605, 3.3970702942002964, 3.658771200406018]</t>
+  </si>
+  <si>
+    <t>[2.3571510484102403, 4.761467680963601, 3.582423296478393, 2.9123663102560067, 4.919651121862888, 2.9075763673639745, 3.085248084381741, 5.267145518644429, 3.1058403831748578, 3.162312150711627]</t>
+  </si>
+  <si>
+    <t>[2.9515993862089696, 4.940559814095852, 3.4000994737155548, 3.1784282013763216, 4.7954313096993975, 2.152467464075095, 2.95480558591702, 5.7283117468179485, 3.784572614664149, 3.631197214146058]</t>
+  </si>
+  <si>
+    <t>[4.000725019331592, 3.6739690392006703, 5.556526911551009, 6.0635656455796, 6.236036550197141, 4.420813912543676, 5.079584377658698, 6.049506512435475, 4.491239370353493, 4.381363647498197]</t>
+  </si>
+  <si>
+    <t>[3.607278253054152, 3.480742381605529, 5.904027586312184, 5.878277746980329, 6.166987586270228, 3.523726211393381, 6.0316489287408706, 6.601447767920651, 4.180795166417783, 4.218738032706231]</t>
+  </si>
+  <si>
+    <t>[3.613615388716689, 3.76489270371315, 5.270777550333762, 6.060755081564061, 6.559832072663968, 3.841548571587139, 5.797160284154601, 6.178712675118026, 4.145925049276967, 4.358732544450452]</t>
   </si>
 </sst>
 </file>
@@ -516,22 +516,22 @@
         <v>17</v>
       </c>
       <c r="E2">
-        <v>0.8908337496089529</v>
+        <v>0.968331183445073</v>
       </c>
       <c r="F2">
-        <v>0.7154303165457025</v>
+        <v>1.258612271163961</v>
       </c>
       <c r="G2">
-        <v>1.09066678519939</v>
+        <v>1.049762118981574</v>
       </c>
       <c r="H2">
-        <v>2.047861004845454</v>
+        <v>1.898824443878907</v>
       </c>
       <c r="I2">
-        <v>-0.944248245081363</v>
+        <v>-0.8370082039947224</v>
       </c>
       <c r="J2">
-        <v>2.874408137403387</v>
+        <v>2.708400178856639</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -548,22 +548,22 @@
         <v>18</v>
       </c>
       <c r="E3">
-        <v>0.90179011762707</v>
+        <v>1.027585821855948</v>
       </c>
       <c r="F3">
-        <v>0.5005969082626693</v>
+        <v>1.115186100032481</v>
       </c>
       <c r="G3">
-        <v>1.086551619768378</v>
+        <v>1.040615748471363</v>
       </c>
       <c r="H3">
-        <v>1.993528693247617</v>
+        <v>1.859648466312934</v>
       </c>
       <c r="I3">
-        <v>-0.7995345781134289</v>
+        <v>-0.8524659342571466</v>
       </c>
       <c r="J3">
-        <v>2.893860452043841</v>
+        <v>2.868437001573735</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -580,22 +580,22 @@
         <v>19</v>
       </c>
       <c r="E4">
-        <v>0.877709631893714</v>
+        <v>1.033070064291599</v>
       </c>
       <c r="F4">
-        <v>0.6531302440608453</v>
+        <v>1.265391488839686</v>
       </c>
       <c r="G4">
-        <v>1.040841377264883</v>
+        <v>1.01710011430904</v>
       </c>
       <c r="H4">
-        <v>1.884145612920133</v>
+        <v>1.944689742547099</v>
       </c>
       <c r="I4">
-        <v>-0.8799225051804003</v>
+        <v>-0.6790072924087693</v>
       </c>
       <c r="J4">
-        <v>2.693851173667157</v>
+        <v>2.762979407028324</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -612,22 +612,22 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1.906213608443921</v>
+        <v>2.09513225387177</v>
       </c>
       <c r="F5">
-        <v>1.664731501237072</v>
+        <v>2.346375512395447</v>
       </c>
       <c r="G5">
-        <v>1.112517714054654</v>
+        <v>1.010247852869867</v>
       </c>
       <c r="H5">
-        <v>2.078383652226492</v>
+        <v>1.806001296627589</v>
       </c>
       <c r="I5">
-        <v>0.1489215348824766</v>
+        <v>0.3053031521758051</v>
       </c>
       <c r="J5">
-        <v>3.848907056862027</v>
+        <v>3.75968801617748</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -644,22 +644,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1.962603070871779</v>
+        <v>2.036545452472676</v>
       </c>
       <c r="F6">
-        <v>1.820559503498228</v>
+        <v>2.452916226402713</v>
       </c>
       <c r="G6">
-        <v>1.031926580287638</v>
+        <v>1.053372614868188</v>
       </c>
       <c r="H6">
-        <v>1.938982230331623</v>
+        <v>1.834054424738558</v>
       </c>
       <c r="I6">
-        <v>0.2174422855658378</v>
+        <v>0.03824559336340105</v>
       </c>
       <c r="J6">
-        <v>3.883420236470926</v>
+        <v>3.727315173206041</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -676,22 +676,22 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1.937030132042761</v>
+        <v>2.112907654716067</v>
       </c>
       <c r="F7">
-        <v>1.792491024812481</v>
+        <v>2.397811467142337</v>
       </c>
       <c r="G7">
-        <v>1.048419990580402</v>
+        <v>1.0668875686686</v>
       </c>
       <c r="H7">
-        <v>1.989563517465973</v>
+        <v>1.929573009873794</v>
       </c>
       <c r="I7">
-        <v>0.1314435630066434</v>
+        <v>0.1270289717168374</v>
       </c>
       <c r="J7">
-        <v>3.685356516309492</v>
+        <v>3.854714752698931</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -708,22 +708,22 @@
         <v>23</v>
       </c>
       <c r="E8">
-        <v>2.848825125048192</v>
+        <v>2.904823557184678</v>
       </c>
       <c r="F8">
-        <v>2.410099580760873</v>
+        <v>2.634425454024813</v>
       </c>
       <c r="G8">
-        <v>1.086394271830024</v>
+        <v>1.101170647642022</v>
       </c>
       <c r="H8">
-        <v>2.03850569170433</v>
+        <v>2.010513723244532</v>
       </c>
       <c r="I8">
-        <v>1.223996408205072</v>
+        <v>1.142070018132237</v>
       </c>
       <c r="J8">
-        <v>4.834399046944536</v>
+        <v>4.813342728765964</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -740,22 +740,22 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>2.812505587637666</v>
+        <v>2.838638959847041</v>
       </c>
       <c r="F9">
-        <v>2.391797045598767</v>
+        <v>2.597778469143178</v>
       </c>
       <c r="G9">
-        <v>1.120716357972687</v>
+        <v>1.079262358868471</v>
       </c>
       <c r="H9">
-        <v>1.984353567372285</v>
+        <v>1.957098558504685</v>
       </c>
       <c r="I9">
-        <v>1.197153401456493</v>
+        <v>1.103780015332697</v>
       </c>
       <c r="J9">
-        <v>4.922281866129098</v>
+        <v>4.676968167277625</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -772,22 +772,22 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>2.829104506810397</v>
+        <v>2.936591867276663</v>
       </c>
       <c r="F10">
-        <v>2.439971475111707</v>
+        <v>2.623319212824887</v>
       </c>
       <c r="G10">
-        <v>1.050122979278302</v>
+        <v>1.096561111490255</v>
       </c>
       <c r="H10">
-        <v>1.990826816346215</v>
+        <v>1.997171075203339</v>
       </c>
       <c r="I10">
-        <v>1.333471041153242</v>
+        <v>1.102073255548956</v>
       </c>
       <c r="J10">
-        <v>4.951212908644681</v>
+        <v>4.908700058752856</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -804,22 +804,22 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>4.023179414448156</v>
+        <v>3.792234926459565</v>
       </c>
       <c r="F11">
-        <v>4.306507874989705</v>
+        <v>3.48648258190038</v>
       </c>
       <c r="G11">
-        <v>1.070775654394388</v>
+        <v>1.014926716156062</v>
       </c>
       <c r="H11">
-        <v>2.004687449382626</v>
+        <v>1.968859091871551</v>
       </c>
       <c r="I11">
-        <v>2.226744883851491</v>
+        <v>2.196764944451497</v>
       </c>
       <c r="J11">
-        <v>5.829659672493209</v>
+        <v>5.65553064693392</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -836,22 +836,22 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>4.023214059844467</v>
+        <v>3.76739853161869</v>
       </c>
       <c r="F12">
-        <v>4.21769010426851</v>
+        <v>3.332507562547972</v>
       </c>
       <c r="G12">
-        <v>1.103644046068668</v>
+        <v>1.085559587110547</v>
       </c>
       <c r="H12">
-        <v>2.027007232663032</v>
+        <v>1.934734876116039</v>
       </c>
       <c r="I12">
-        <v>2.11805041621194</v>
+        <v>2.155515782415654</v>
       </c>
       <c r="J12">
-        <v>5.764589377220197</v>
+        <v>5.833562299632758</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -868,22 +868,22 @@
         <v>28</v>
       </c>
       <c r="E13">
-        <v>4.079973270392466</v>
+        <v>3.850525031872281</v>
       </c>
       <c r="F13">
-        <v>4.390017938194811</v>
+        <v>3.487195762912587</v>
       </c>
       <c r="G13">
-        <v>1.095334670781786</v>
+        <v>1.087074555508734</v>
       </c>
       <c r="H13">
-        <v>2.059789711757856</v>
+        <v>1.937609258553851</v>
       </c>
       <c r="I13">
-        <v>2.166066939736118</v>
+        <v>2.152467464075095</v>
       </c>
       <c r="J13">
-        <v>5.937008265329732</v>
+        <v>5.92878882243579</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -900,22 +900,22 @@
         <v>29</v>
       </c>
       <c r="E14">
-        <v>4.928521472988778</v>
+        <v>5.003024651796526</v>
       </c>
       <c r="F14">
-        <v>4.666809643279249</v>
+        <v>5.307046860052813</v>
       </c>
       <c r="G14">
-        <v>1.08782383315557</v>
+        <v>1.068121043723531</v>
       </c>
       <c r="H14">
-        <v>1.941829382424491</v>
+        <v>2.036831013015194</v>
       </c>
       <c r="I14">
-        <v>3.136644107341265</v>
+        <v>3.132552240651305</v>
       </c>
       <c r="J14">
-        <v>6.82715303870811</v>
+        <v>6.765597606487786</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -932,22 +932,22 @@
         <v>30</v>
       </c>
       <c r="E15">
-        <v>4.905934975834543</v>
+        <v>5.049062979087747</v>
       </c>
       <c r="F15">
-        <v>4.432250283286177</v>
+        <v>5.180881797004792</v>
       </c>
       <c r="G15">
-        <v>1.073840109222765</v>
+        <v>1.114212891503346</v>
       </c>
       <c r="H15">
-        <v>1.850709125990769</v>
+        <v>2.005678556930579</v>
       </c>
       <c r="I15">
-        <v>3.048415070885462</v>
+        <v>3.278251023102247</v>
       </c>
       <c r="J15">
-        <v>6.800194694209575</v>
+        <v>6.842247151352737</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -964,22 +964,22 @@
         <v>31</v>
       </c>
       <c r="E16">
-        <v>4.959211196927857</v>
+        <v>5.018504390763889</v>
       </c>
       <c r="F16">
-        <v>4.600369611003645</v>
+        <v>5.385788250178841</v>
       </c>
       <c r="G16">
-        <v>1.126960545054214</v>
+        <v>1.106264907395843</v>
       </c>
       <c r="H16">
-        <v>2.102791720307566</v>
+        <v>2.036450000733681</v>
       </c>
       <c r="I16">
-        <v>3.086548504991888</v>
+        <v>3.094838594757794</v>
       </c>
       <c r="J16">
-        <v>6.96337052856588</v>
+        <v>6.838196050056629</v>
       </c>
     </row>
   </sheetData>
